--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -1347,7 +1347,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2297,7 +2297,7 @@
         <v>40798</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2437,7 +2437,7 @@
         <v>40797</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26" t="s">
@@ -2581,7 +2581,7 @@
         <v>40802</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -2666,7 +2666,7 @@
         <v>40799</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
@@ -2747,7 +2747,7 @@
         <v>40799</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23" t="s">

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$55</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
   <si>
     <t>GVCM</t>
   </si>
@@ -365,6 +365,24 @@
   </si>
   <si>
     <t>Lập file dự án (convention+plan) version 1.0</t>
+  </si>
+  <si>
+    <t>f400</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>Hợp đồng khung</t>
+  </si>
+  <si>
+    <t>Lớp môn</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Nội dung thanh toán( còn thiếu học liệu)</t>
   </si>
 </sst>
 </file>
@@ -612,11 +630,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -639,11 +749,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000CC"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -665,10 +775,18 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -690,19 +808,27 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0000CC"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -724,11 +850,53 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1338,21 +1506,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE48"/>
+  <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="48" style="38" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1386,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="17">
-        <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$44,C2,$E$10:$E$44)</f>
+        <f>SUMIF($D$10:$D$51,C2,$E$10:$E$51)</f>
         <v>0.5</v>
       </c>
       <c r="E2" s="41">
@@ -1405,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$51,C3,$E$10:$E$51)</f>
         <v>3</v>
       </c>
       <c r="E3" s="41">
@@ -1424,7 +1592,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$51,C4,$E$10:$E$51)</f>
         <v>1</v>
       </c>
       <c r="E4" s="41">
@@ -1441,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$51,C5,$E$10:$E$51)</f>
         <v>0</v>
       </c>
       <c r="E5" s="41">
@@ -1460,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$51,C6,$E$10:$E$51)</f>
         <v>0</v>
       </c>
       <c r="E6" s="41">
@@ -1476,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$51,C7,$E$10:$E$51)</f>
         <v>0</v>
       </c>
       <c r="E7" s="41">
@@ -1496,187 +1664,187 @@
         <v>40792</v>
       </c>
       <c r="L8" s="43">
-        <f t="shared" ref="L8:BE8" si="1">L9</f>
+        <f t="shared" ref="L8:BE8" si="0">L9</f>
         <v>40793</v>
       </c>
       <c r="M8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40794</v>
       </c>
       <c r="N8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40795</v>
       </c>
       <c r="O8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40796</v>
       </c>
       <c r="P8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40797</v>
       </c>
       <c r="Q8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40798</v>
       </c>
       <c r="R8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40799</v>
       </c>
       <c r="S8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40800</v>
       </c>
       <c r="T8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40801</v>
       </c>
       <c r="U8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40802</v>
       </c>
       <c r="V8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40803</v>
       </c>
       <c r="W8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40804</v>
       </c>
       <c r="X8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40805</v>
       </c>
       <c r="Y8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40806</v>
       </c>
       <c r="Z8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40807</v>
       </c>
       <c r="AA8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40808</v>
       </c>
       <c r="AB8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40809</v>
       </c>
       <c r="AC8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40810</v>
       </c>
       <c r="AD8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40811</v>
       </c>
       <c r="AE8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40812</v>
       </c>
       <c r="AF8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40813</v>
       </c>
       <c r="AG8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40814</v>
       </c>
       <c r="AH8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40815</v>
       </c>
       <c r="AI8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40816</v>
       </c>
       <c r="AJ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40817</v>
       </c>
       <c r="AK8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40818</v>
       </c>
       <c r="AL8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40819</v>
       </c>
       <c r="AM8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40820</v>
       </c>
       <c r="AN8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40821</v>
       </c>
       <c r="AO8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40822</v>
       </c>
       <c r="AP8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40823</v>
       </c>
       <c r="AQ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40824</v>
       </c>
       <c r="AR8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40825</v>
       </c>
       <c r="AS8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40826</v>
       </c>
       <c r="AT8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40827</v>
       </c>
       <c r="AU8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40828</v>
       </c>
       <c r="AV8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40829</v>
       </c>
       <c r="AW8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40830</v>
       </c>
       <c r="AX8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40831</v>
       </c>
       <c r="AY8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40832</v>
       </c>
       <c r="AZ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40833</v>
       </c>
       <c r="BA8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40834</v>
       </c>
       <c r="BB8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40835</v>
       </c>
       <c r="BC8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40836</v>
       </c>
       <c r="BD8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40837</v>
       </c>
       <c r="BE8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40838</v>
       </c>
     </row>
@@ -1716,183 +1884,183 @@
         <v>40793</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" ref="M9:BE9" si="2">L9+1</f>
+        <f t="shared" ref="M9:BE9" si="1">L9+1</f>
         <v>40794</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40795</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40796</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40797</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40798</v>
       </c>
       <c r="R9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40799</v>
       </c>
       <c r="S9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40800</v>
       </c>
       <c r="T9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40801</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40802</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40803</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40804</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40805</v>
       </c>
       <c r="Y9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40806</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40807</v>
       </c>
       <c r="AA9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40808</v>
       </c>
       <c r="AB9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40809</v>
       </c>
       <c r="AC9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40810</v>
       </c>
       <c r="AD9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40811</v>
       </c>
       <c r="AE9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40812</v>
       </c>
       <c r="AF9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40813</v>
       </c>
       <c r="AG9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40814</v>
       </c>
       <c r="AH9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40815</v>
       </c>
       <c r="AI9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40816</v>
       </c>
       <c r="AJ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40817</v>
       </c>
       <c r="AK9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40818</v>
       </c>
       <c r="AL9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40819</v>
       </c>
       <c r="AM9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40820</v>
       </c>
       <c r="AN9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40821</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40822</v>
       </c>
       <c r="AP9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40823</v>
       </c>
       <c r="AQ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40824</v>
       </c>
       <c r="AR9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40825</v>
       </c>
       <c r="AS9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40826</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40827</v>
       </c>
       <c r="AU9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40828</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40829</v>
       </c>
       <c r="AW9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40830</v>
       </c>
       <c r="AX9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40831</v>
       </c>
       <c r="AY9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40832</v>
       </c>
       <c r="AZ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40833</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40834</v>
       </c>
       <c r="BB9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40835</v>
       </c>
       <c r="BC9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40836</v>
       </c>
       <c r="BD9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40837</v>
       </c>
       <c r="BE9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40838</v>
       </c>
     </row>
@@ -1956,7 +2124,7 @@
       <c r="BD10" s="22"/>
       <c r="BE10" s="22"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" hidden="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1971,11 +2139,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="24">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$48,$A$48-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",K11:BE$48,$A$48-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K11:BE$55,$A$55-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",K11:BE$55,$A$55-$A11+1,FALSE),0)</f>
         <v>40792</v>
       </c>
       <c r="G11" s="24">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$48,$A$48-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",K11:BE$48,$A$48-$A11+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K11:BE$55,$A$55-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",K11:BE$55,$A$55-$A11+1,FALSE),0)</f>
         <v>40793</v>
       </c>
       <c r="H11" s="24" t="s">
@@ -2035,7 +2203,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" hidden="1">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2050,11 +2218,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="24">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$48,$A$48-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",K12:BE$48,$A$48-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K12:BE$55,$A$55-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",K12:BE$55,$A$55-$A12+1,FALSE),0)</f>
         <v>40792</v>
       </c>
       <c r="G12" s="24">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$48,$A$48-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",K12:BE$48,$A$48-$A12+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K12:BE$55,$A$55-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",K12:BE$55,$A$55-$A12+1,FALSE),0)</f>
         <v>40793</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -2129,11 +2297,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="24">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$48,$A$48-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",K13:BE$48,$A$48-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K13:BE$55,$A$55-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",K13:BE$55,$A$55-$A13+1,FALSE),0)</f>
         <v>40792</v>
       </c>
       <c r="G13" s="24">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$48,$A$48-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",K13:BE$48,$A$48-$A13+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K13:BE$55,$A$55-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",K13:BE$55,$A$55-$A13+1,FALSE),0)</f>
         <v>40793</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -2193,42 +2361,40 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" hidden="1">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="34" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.5</v>
+      </c>
       <c r="F14" s="24">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$48,$A$48-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",K14:BE$48,$A$48-$A14+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K14:BE$55,$A$55-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",K14:BE$55,$A$55-$A14+1,FALSE),0)</f>
+        <v>40797</v>
       </c>
       <c r="G14" s="24">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$48,$A$48-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$48,$A$48-$A14+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K14:BE$55,$A$55-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$55,$A$55-$A14+1,FALSE),0)</f>
         <v>40798</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>56</v>
@@ -2274,314 +2440,316 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:57">
-      <c r="A15">
+    <row r="15" spans="1:57" s="21" customFormat="1">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="24">
-        <f>IFERROR( HLOOKUP("BE",K15:BE$48,$A$48-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("B",K15:BE$48,$A$48-$A15+1,FALSE),0)</f>
-        <v>40797</v>
-      </c>
-      <c r="G15" s="24">
-        <f>IFERROR( HLOOKUP("BE",K15:BE$48,$A$48-$A15+1,FALSE),0)+ IFERROR( HLOOKUP("E",K15:BE$48,$A$48-$A15+1,FALSE),0)</f>
-        <v>40798</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-    </row>
-    <row r="16" spans="1:57" s="21" customFormat="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+    </row>
+    <row r="16" spans="1:57" hidden="1">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="22"/>
-    </row>
-    <row r="17" spans="1:57" s="28" customFormat="1">
+      <c r="B16" s="23"/>
+      <c r="C16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24">
+        <f>IFERROR( HLOOKUP("BE",K16:BE$55,$A$55-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",K16:BE$55,$A$55-$A16+1,FALSE),0)</f>
+        <v>40802</v>
+      </c>
+      <c r="G16" s="24">
+        <f>IFERROR( HLOOKUP("BE",K16:BE$55,$A$55-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",K16:BE$55,$A$55-$A16+1,FALSE),0)</f>
+        <v>40802</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+    </row>
+    <row r="17" spans="1:57" hidden="1">
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="24">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$48,$A$48-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",K17:BE$48,$A$48-$A17+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K17:BE$55,$A$55-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",K17:BE$55,$A$55-$A17+1,FALSE),0)</f>
+        <v>40803</v>
       </c>
       <c r="G17" s="24">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$48,$A$48-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",K17:BE$48,$A$48-$A17+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K17:BE$55,$A$55-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",K17:BE$55,$A$55-$A17+1,FALSE),0)</f>
+        <v>40803</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="27"/>
-      <c r="BE17" s="27"/>
-    </row>
-    <row r="18" spans="1:57" s="21" customFormat="1">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+    </row>
+    <row r="18" spans="1:57" hidden="1">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="22"/>
-      <c r="AX18" s="22"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="22"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
-    </row>
-    <row r="19" spans="1:57">
+      <c r="B18" s="23"/>
+      <c r="C18" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24">
+        <f>IFERROR( HLOOKUP("BE",K18:BE$55,$A$55-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",K18:BE$55,$A$55-$A18+1,FALSE),0)</f>
+        <v>40805</v>
+      </c>
+      <c r="G18" s="24">
+        <f>IFERROR( HLOOKUP("BE",K18:BE$55,$A$55-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",K18:BE$55,$A$55-$A18+1,FALSE),0)</f>
+        <v>40805</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+    </row>
+    <row r="19" spans="1:57" hidden="1">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="34" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24">
-        <f>IFERROR( HLOOKUP("BE",K19:BE$48,$A$48-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",K19:BE$48,$A$48-$A19+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K19:BE$55,$A$55-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",K19:BE$55,$A$55-$A19+1,FALSE),0)</f>
+        <v>40806</v>
       </c>
       <c r="G19" s="24">
-        <f>IFERROR( HLOOKUP("BE",K19:BE$48,$A$48-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",K19:BE$48,$A$48-$A19+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K19:BE$55,$A$55-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",K19:BE$55,$A$55-$A19+1,FALSE),0)</f>
+        <v>40806</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -2590,28 +2758,18 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2645,47 +2803,39 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:57" hidden="1">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="34" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$48,$A$48-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",K20:BE$48,$A$48-$A20+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K20:BE$55,$A$55-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",K20:BE$55,$A$55-$A20+1,FALSE),0)</f>
+        <v>40807</v>
       </c>
       <c r="G20" s="24">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$48,$A$48-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",K20:BE$48,$A$48-$A20+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K20:BE$55,$A$55-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",K20:BE$55,$A$55-$A20+1,FALSE),0)</f>
+        <v>40807</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="J20" s="23"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2693,7 +2843,9 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2726,51 +2878,45 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:57" hidden="1">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="34" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="24">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$48,$A$48-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",K21:BE$48,$A$48-$A21+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K21:BE$55,$A$55-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",K21:BE$55,$A$55-$A21+1,FALSE),0)</f>
+        <v>40803</v>
       </c>
       <c r="G21" s="24">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$48,$A$48-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",K21:BE$48,$A$48-$A21+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K21:BE$55,$A$55-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",K21:BE$55,$A$55-$A21+1,FALSE),0)</f>
+        <v>40803</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -2807,42 +2953,36 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:57" hidden="1">
       <c r="A22">
         <v>12</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="34" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="24">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$48,$A$48-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",K22:BE$48,$A$48-$A22+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K22:BE$55,$A$55-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",K22:BE$55,$A$55-$A22+1,FALSE),0)</f>
+        <v>40807</v>
       </c>
       <c r="G22" s="24">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$48,$A$48-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",K22:BE$48,$A$48-$A22+1,FALSE),0)</f>
-        <v>40796</v>
+        <f>IFERROR( HLOOKUP("BE",K22:BE$55,$A$55-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",K22:BE$55,$A$55-$A22+1,FALSE),0)</f>
+        <v>40809</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="J22" s="23"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2853,9 +2993,15 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
+      <c r="Z22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -2891,8 +3037,8 @@
         <v>13</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="33" t="s">
-        <v>66</v>
+      <c r="C23" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -2949,232 +3095,206 @@
       <c r="BD23" s="22"/>
       <c r="BE23" s="22"/>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:57" s="28" customFormat="1">
       <c r="A24">
         <v>14</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="25"/>
       <c r="F24" s="24">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$48,$A$48-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",K24:BE$48,$A$48-$A24+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K24:BE$55,$A$55-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",K24:BE$55,$A$55-$A24+1,FALSE),0)</f>
+        <v>40795</v>
       </c>
       <c r="G24" s="24">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$48,$A$48-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",K24:BE$48,$A$48-$A24+1,FALSE),0)</f>
-        <v>40808</v>
+        <f>IFERROR( HLOOKUP("BE",K24:BE$55,$A$55-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",K24:BE$55,$A$55-$A24+1,FALSE),0)</f>
+        <v>40797</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="O24" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="P24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-    </row>
-    <row r="25" spans="1:57" ht="30">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="27"/>
+      <c r="BE24" s="27"/>
+    </row>
+    <row r="25" spans="1:57" s="21" customFormat="1">
       <c r="A25">
         <v>15</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24">
-        <f>IFERROR( HLOOKUP("BE",K25:BE$48,$A$48-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("B",K25:BE$48,$A$48-$A25+1,FALSE),0)</f>
-        <v>40800</v>
-      </c>
-      <c r="G25" s="24">
-        <f>IFERROR( HLOOKUP("BE",K25:BE$48,$A$48-$A25+1,FALSE),0)+ IFERROR( HLOOKUP("E",K25:BE$48,$A$48-$A25+1,FALSE),0)</f>
-        <v>40803</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-    </row>
-    <row r="26" spans="1:57" ht="30">
+      <c r="B25" s="22"/>
+      <c r="C25" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+    </row>
+    <row r="26" spans="1:57" hidden="1">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="34" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$48,$A$48-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",K26:BE$48,$A$48-$A26+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K26:BE$55,$A$55-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",K26:BE$55,$A$55-$A26+1,FALSE),0)</f>
+        <v>40797</v>
       </c>
       <c r="G26" s="24">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$48,$A$48-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",K26:BE$48,$A$48-$A26+1,FALSE),0)</f>
-        <v>40808</v>
+        <f>IFERROR( HLOOKUP("BE",K26:BE$55,$A$55-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",K26:BE$55,$A$55-$A26+1,FALSE),0)</f>
+        <v>40802</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -3206,53 +3326,51 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="30">
+    <row r="27" spans="1:57" hidden="1">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" s="23"/>
-      <c r="C27" s="37" t="s">
-        <v>84</v>
+      <c r="C27" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24">
-        <f>IFERROR( HLOOKUP("BE",K27:BE$48,$A$48-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",K27:BE$48,$A$48-$A27+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K27:BE$55,$A$55-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",K27:BE$55,$A$55-$A27+1,FALSE),0)</f>
+        <v>40797</v>
       </c>
       <c r="G27" s="24">
-        <f>IFERROR( HLOOKUP("BE",K27:BE$48,$A$48-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",K27:BE$48,$A$48-$A27+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K27:BE$55,$A$55-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",K27:BE$55,$A$55-$A27+1,FALSE),0)</f>
+        <v>40799</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -3289,62 +3407,56 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:57" hidden="1">
       <c r="A28">
         <v>18</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$48,$A$48-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",K28:BE$48,$A$48-$A28+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K28:BE$55,$A$55-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",K28:BE$55,$A$55-$A28+1,FALSE),0)</f>
+        <v>40797</v>
       </c>
       <c r="G28" s="24">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$48,$A$48-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",K28:BE$48,$A$48-$A28+1,FALSE),0)</f>
-        <v>40808</v>
+        <f>IFERROR( HLOOKUP("BE",K28:BE$55,$A$55-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",K28:BE$55,$A$55-$A28+1,FALSE),0)</f>
+        <v>40799</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -3376,53 +3488,49 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" ht="30">
+    <row r="29" spans="1:57">
       <c r="A29">
         <v>19</v>
       </c>
       <c r="B29" s="23"/>
-      <c r="C29" s="37" t="s">
-        <v>83</v>
+      <c r="C29" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$48,$A$48-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",K29:BE$48,$A$48-$A29+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K29:BE$55,$A$55-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",K29:BE$55,$A$55-$A29+1,FALSE),0)</f>
+        <v>40795</v>
       </c>
       <c r="G29" s="24">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$48,$A$48-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",K29:BE$48,$A$48-$A29+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K29:BE$55,$A$55-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",K29:BE$55,$A$55-$A29+1,FALSE),0)</f>
+        <v>40796</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -3459,113 +3567,95 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
     </row>
-    <row r="30" spans="1:57" ht="30">
+    <row r="30" spans="1:57" s="21" customFormat="1">
       <c r="A30">
         <v>20</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24">
-        <f>IFERROR( HLOOKUP("BE",K30:BE$48,$A$48-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("B",K30:BE$48,$A$48-$A30+1,FALSE),0)</f>
-        <v>40808</v>
-      </c>
-      <c r="G30" s="24">
-        <f>IFERROR( HLOOKUP("BE",K30:BE$48,$A$48-$A30+1,FALSE),0)+ IFERROR( HLOOKUP("E",K30:BE$48,$A$48-$A30+1,FALSE),0)</f>
-        <v>40810</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-    </row>
-    <row r="31" spans="1:57">
+      <c r="B30" s="22"/>
+      <c r="C30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22"/>
+    </row>
+    <row r="31" spans="1:57" hidden="1">
       <c r="A31">
         <v>21</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$48,$A$48-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",K31:BE$48,$A$48-$A31+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K31:BE$55,$A$55-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",K31:BE$55,$A$55-$A31+1,FALSE),0)</f>
         <v>40808</v>
       </c>
       <c r="G31" s="24">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$48,$A$48-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",K31:BE$48,$A$48-$A31+1,FALSE),0)</f>
-        <v>40813</v>
+        <f>IFERROR( HLOOKUP("BE",K31:BE$55,$A$55-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",K31:BE$55,$A$55-$A31+1,FALSE),0)</f>
+        <v>40809</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3587,20 +3677,12 @@
         <v>55</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF31" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -3627,88 +3709,112 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" s="21" customFormat="1">
+    <row r="32" spans="1:57" ht="30" hidden="1">
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22"/>
-      <c r="AQ32" s="22"/>
-      <c r="AR32" s="22"/>
-      <c r="AS32" s="22"/>
-      <c r="AT32" s="22"/>
-      <c r="AU32" s="22"/>
-      <c r="AV32" s="22"/>
-      <c r="AW32" s="22"/>
-      <c r="AX32" s="22"/>
-      <c r="AY32" s="22"/>
-      <c r="AZ32" s="22"/>
-      <c r="BA32" s="22"/>
-      <c r="BB32" s="22"/>
-      <c r="BC32" s="22"/>
-      <c r="BD32" s="22"/>
-      <c r="BE32" s="22"/>
-    </row>
-    <row r="33" spans="1:57">
+      <c r="B32" s="23"/>
+      <c r="C32" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24">
+        <f>IFERROR( HLOOKUP("BE",K32:BE$55,$A$55-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",K32:BE$55,$A$55-$A32+1,FALSE),0)</f>
+        <v>40804</v>
+      </c>
+      <c r="G32" s="24">
+        <f>IFERROR( HLOOKUP("BE",K32:BE$55,$A$55-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",K32:BE$55,$A$55-$A32+1,FALSE),0)</f>
+        <v>40805</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+    </row>
+    <row r="33" spans="1:57" ht="30" hidden="1">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" s="23"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$48,$A$48-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",K33:BE$48,$A$48-$A33+1,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR( HLOOKUP("BE",K33:BE$55,$A$55-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",K33:BE$55,$A$55-$A33+1,FALSE),0)</f>
+        <v>40810</v>
       </c>
       <c r="G33" s="24">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$48,$A$48-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",K33:BE$48,$A$48-$A33+1,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="24"/>
+        <f>IFERROR( HLOOKUP("BE",K33:BE$55,$A$55-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",K33:BE$55,$A$55-$A33+1,FALSE),0)</f>
+        <v>40811</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="J33" s="23" t="s">
+        <v>97</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3727,8 +3833,12 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
@@ -3757,94 +3867,112 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" s="21" customFormat="1">
+    <row r="34" spans="1:57" ht="30" hidden="1">
       <c r="A34">
         <v>24</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
-      <c r="AP34" s="22"/>
-      <c r="AQ34" s="22"/>
-      <c r="AR34" s="22"/>
-      <c r="AS34" s="22"/>
-      <c r="AT34" s="22"/>
-      <c r="AU34" s="22"/>
-      <c r="AV34" s="22"/>
-      <c r="AW34" s="22"/>
-      <c r="AX34" s="22"/>
-      <c r="AY34" s="22"/>
-      <c r="AZ34" s="22"/>
-      <c r="BA34" s="22"/>
-      <c r="BB34" s="22"/>
-      <c r="BC34" s="22"/>
-      <c r="BD34" s="22"/>
-      <c r="BE34" s="22"/>
-    </row>
-    <row r="35" spans="1:57" ht="30">
+      <c r="B34" s="23"/>
+      <c r="C34" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24">
+        <f>IFERROR( HLOOKUP("BE",K34:BE$55,$A$55-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",K34:BE$55,$A$55-$A34+1,FALSE),0)</f>
+        <v>40806</v>
+      </c>
+      <c r="G34" s="24">
+        <f>IFERROR( HLOOKUP("BE",K34:BE$55,$A$55-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",K34:BE$55,$A$55-$A34+1,FALSE),0)</f>
+        <v>40807</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+    </row>
+    <row r="35" spans="1:57">
       <c r="A35">
         <v>25</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="34" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$48,$A$48-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",K35:BE$48,$A$48-$A35+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K35:BE$55,$A$55-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",K35:BE$55,$A$55-$A35+1,FALSE),0)</f>
+        <v>40803</v>
       </c>
       <c r="G35" s="24">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$48,$A$48-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",K35:BE$48,$A$48-$A35+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K35:BE$55,$A$55-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",K35:BE$55,$A$55-$A35+1,FALSE),0)</f>
+        <v>40808</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3855,11 +3983,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>64</v>
@@ -3871,9 +3997,11 @@
         <v>64</v>
       </c>
       <c r="Z35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -3905,100 +4033,118 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" s="21" customFormat="1">
+    <row r="36" spans="1:57" ht="30">
       <c r="A36">
         <v>26</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="22"/>
-      <c r="AW36" s="22"/>
-      <c r="AX36" s="22"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="22"/>
-      <c r="BA36" s="22"/>
-      <c r="BB36" s="22"/>
-      <c r="BC36" s="22"/>
-      <c r="BD36" s="22"/>
-      <c r="BE36" s="22"/>
-    </row>
-    <row r="37" spans="1:57">
+      <c r="B36" s="23"/>
+      <c r="C36" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24">
+        <f>IFERROR( HLOOKUP("BE",K36:BE$55,$A$55-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",K36:BE$55,$A$55-$A36+1,FALSE),0)</f>
+        <v>40800</v>
+      </c>
+      <c r="G36" s="24">
+        <f>IFERROR( HLOOKUP("BE",K36:BE$55,$A$55-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",K36:BE$55,$A$55-$A36+1,FALSE),0)</f>
+        <v>40803</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+    </row>
+    <row r="37" spans="1:57" ht="30" hidden="1">
       <c r="A37">
         <v>27</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24">
-        <f>IFERROR( HLOOKUP("BE",K37:BE$48,$A$48-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",K37:BE$48,$A$48-$A37+1,FALSE),0)</f>
-        <v>40792</v>
+        <f>IFERROR( HLOOKUP("BE",K37:BE$55,$A$55-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",K37:BE$55,$A$55-$A37+1,FALSE),0)</f>
+        <v>40812</v>
       </c>
       <c r="G37" s="24">
-        <f>IFERROR( HLOOKUP("BE",K37:BE$48,$A$48-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",K37:BE$48,$A$48-$A37+1,FALSE),0)</f>
-        <v>40793</v>
+        <f>IFERROR( HLOOKUP("BE",K37:BE$55,$A$55-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",K37:BE$55,$A$55-$A37+1,FALSE),0)</f>
+        <v>40814</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="J37" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -4017,9 +4163,15 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -4045,39 +4197,37 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:57" hidden="1">
       <c r="A38">
         <v>28</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$48,$A$48-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",K38:BE$48,$A$48-$A38+1,FALSE),0)</f>
-        <v>40794</v>
+        <f>IFERROR( HLOOKUP("BE",K38:BE$55,$A$55-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",K38:BE$55,$A$55-$A38+1,FALSE),0)</f>
+        <v>40812</v>
       </c>
       <c r="G38" s="24">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$48,$A$48-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",K38:BE$48,$A$48-$A38+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K38:BE$55,$A$55-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",K38:BE$55,$A$55-$A38+1,FALSE),0)</f>
+        <v>40817</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4094,12 +4244,24 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
@@ -4122,109 +4284,87 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:57" s="21" customFormat="1">
       <c r="A39">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24">
-        <f>IFERROR( HLOOKUP("BE",K39:BE$48,$A$48-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("B",K39:BE$48,$A$48-$A39+1,FALSE),0)</f>
-        <v>40794</v>
-      </c>
-      <c r="G39" s="24">
-        <f>IFERROR( HLOOKUP("BE",K39:BE$48,$A$48-$A39+1,FALSE),0)+ IFERROR( HLOOKUP("E",K39:BE$48,$A$48-$A39+1,FALSE),0)</f>
-        <v>40795</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="22"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
     </row>
     <row r="40" spans="1:57">
       <c r="A40">
         <v>30</v>
       </c>
       <c r="B40" s="23"/>
-      <c r="C40" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>74</v>
-      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="24">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$48,$A$48-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",K40:BE$48,$A$48-$A40+1,FALSE),0)</f>
-        <v>40798</v>
+        <f>IFERROR( HLOOKUP("BE",K40:BE$55,$A$55-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",K40:BE$55,$A$55-$A40+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G40" s="24">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$48,$A$48-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",K40:BE$48,$A$48-$A40+1,FALSE),0)</f>
-        <v>40798</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>109</v>
-      </c>
+        <f>IFERROR( HLOOKUP("BE",K40:BE$55,$A$55-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",K40:BE$55,$A$55-$A40+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4232,9 +4372,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -4276,100 +4414,88 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:57" s="21" customFormat="1">
       <c r="A41">
         <v>31</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24">
-        <f>IFERROR( HLOOKUP("BE",K41:BE$48,$A$48-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("B",K41:BE$48,$A$48-$A41+1,FALSE),0)</f>
-        <v>40799</v>
-      </c>
-      <c r="G41" s="24">
-        <f>IFERROR( HLOOKUP("BE",K41:BE$48,$A$48-$A41+1,FALSE),0)+ IFERROR( HLOOKUP("E",K41:BE$48,$A$48-$A41+1,FALSE),0)</f>
-        <v>40799</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-    </row>
-    <row r="42" spans="1:57">
+      <c r="B41" s="22"/>
+      <c r="C41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+    </row>
+    <row r="42" spans="1:57" ht="30">
       <c r="A42">
         <v>32</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="34" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$48,$A$48-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",K42:BE$48,$A$48-$A42+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K42:BE$55,$A$55-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",K42:BE$55,$A$55-$A42+1,FALSE),0)</f>
+        <v>40802</v>
       </c>
       <c r="G42" s="24">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$48,$A$48-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",K42:BE$48,$A$48-$A42+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K42:BE$55,$A$55-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",K42:BE$55,$A$55-$A42+1,FALSE),0)</f>
+        <v>40807</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>39</v>
@@ -4384,16 +4510,26 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="U42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -4426,463 +4562,934 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
     </row>
-    <row r="43" spans="1:57" ht="30">
+    <row r="43" spans="1:57" s="21" customFormat="1">
       <c r="A43">
         <v>33</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24">
-        <f>IFERROR( HLOOKUP("BE",K43:BE$48,$A$48-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("B",K43:BE$48,$A$48-$A43+1,FALSE),0)</f>
-        <v>40801</v>
-      </c>
-      <c r="G43" s="24">
-        <f>IFERROR( HLOOKUP("BE",K43:BE$48,$A$48-$A43+1,FALSE),0)+ IFERROR( HLOOKUP("E",K43:BE$48,$A$48-$A43+1,FALSE),0)</f>
-        <v>40801</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-    </row>
-    <row r="44" spans="1:57" s="21" customFormat="1">
+      <c r="B43" s="22"/>
+      <c r="C43" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="22"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+      <c r="AU43" s="22"/>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="22"/>
+      <c r="AY43" s="22"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="22"/>
+      <c r="BB43" s="22"/>
+      <c r="BC43" s="22"/>
+      <c r="BD43" s="22"/>
+      <c r="BE43" s="22"/>
+    </row>
+    <row r="44" spans="1:57">
       <c r="A44">
         <v>34</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
-      <c r="AR44" s="22"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="22"/>
-      <c r="AU44" s="22"/>
-      <c r="AV44" s="22"/>
-      <c r="AW44" s="22"/>
-      <c r="AX44" s="22"/>
-      <c r="AY44" s="22"/>
-      <c r="AZ44" s="22"/>
-      <c r="BA44" s="22"/>
-      <c r="BB44" s="22"/>
-      <c r="BC44" s="22"/>
-      <c r="BD44" s="22"/>
-      <c r="BE44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24">
+        <f>IFERROR( HLOOKUP("BE",K44:BE$55,$A$55-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",K44:BE$55,$A$55-$A44+1,FALSE),0)</f>
+        <v>40792</v>
+      </c>
+      <c r="G44" s="24">
+        <f>IFERROR( HLOOKUP("BE",K44:BE$55,$A$55-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",K44:BE$55,$A$55-$A44+1,FALSE),0)</f>
+        <v>40793</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
     </row>
     <row r="45" spans="1:57">
       <c r="A45">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:57">
+      <c r="B45" s="23"/>
+      <c r="C45" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24">
+        <f>IFERROR( HLOOKUP("BE",K45:BE$55,$A$55-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",K45:BE$55,$A$55-$A45+1,FALSE),0)</f>
+        <v>40794</v>
+      </c>
+      <c r="G45" s="24">
+        <f>IFERROR( HLOOKUP("BE",K45:BE$55,$A$55-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",K45:BE$55,$A$55-$A45+1,FALSE),0)</f>
+        <v>40795</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+    </row>
+    <row r="46" spans="1:57" hidden="1">
       <c r="A46">
         <v>36</v>
       </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24">
+        <f>IFERROR( HLOOKUP("BE",K46:BE$55,$A$55-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",K46:BE$55,$A$55-$A46+1,FALSE),0)</f>
+        <v>40794</v>
+      </c>
+      <c r="G46" s="24">
+        <f>IFERROR( HLOOKUP("BE",K46:BE$55,$A$55-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",K46:BE$55,$A$55-$A46+1,FALSE),0)</f>
+        <v>40795</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
     </row>
     <row r="47" spans="1:57">
       <c r="A47">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:57" s="29" customFormat="1">
+      <c r="B47" s="23"/>
+      <c r="C47" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24">
+        <f>IFERROR( HLOOKUP("BE",K47:BE$55,$A$55-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",K47:BE$55,$A$55-$A47+1,FALSE),0)</f>
+        <v>40798</v>
+      </c>
+      <c r="G47" s="24">
+        <f>IFERROR( HLOOKUP("BE",K47:BE$55,$A$55-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",K47:BE$55,$A$55-$A47+1,FALSE),0)</f>
+        <v>40798</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="23"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+    </row>
+    <row r="48" spans="1:57">
       <c r="A48">
         <v>38</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24">
+        <f>IFERROR( HLOOKUP("BE",K48:BE$55,$A$55-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",K48:BE$55,$A$55-$A48+1,FALSE),0)</f>
+        <v>40799</v>
+      </c>
+      <c r="G48" s="24">
+        <f>IFERROR( HLOOKUP("BE",K48:BE$55,$A$55-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",K48:BE$55,$A$55-$A48+1,FALSE),0)</f>
+        <v>40799</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+    </row>
+    <row r="49" spans="1:57">
+      <c r="A49">
+        <v>39</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24">
+        <f>IFERROR( HLOOKUP("BE",K49:BE$55,$A$55-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",K49:BE$55,$A$55-$A49+1,FALSE),0)</f>
+        <v>40800</v>
+      </c>
+      <c r="G49" s="24">
+        <f>IFERROR( HLOOKUP("BE",K49:BE$55,$A$55-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",K49:BE$55,$A$55-$A49+1,FALSE),0)</f>
+        <v>40800</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+    </row>
+    <row r="50" spans="1:57" ht="30">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24">
+        <f>IFERROR( HLOOKUP("BE",K50:BE$55,$A$55-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",K50:BE$55,$A$55-$A50+1,FALSE),0)</f>
+        <v>40801</v>
+      </c>
+      <c r="G50" s="24">
+        <f>IFERROR( HLOOKUP("BE",K50:BE$55,$A$55-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",K50:BE$55,$A$55-$A50+1,FALSE),0)</f>
+        <v>40801</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+    </row>
+    <row r="51" spans="1:57" s="21" customFormat="1">
+      <c r="A51">
+        <v>41</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="22"/>
+      <c r="AO51" s="22"/>
+      <c r="AP51" s="22"/>
+      <c r="AQ51" s="22"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="22"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="22"/>
+      <c r="AY51" s="22"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="22"/>
+      <c r="BB51" s="22"/>
+      <c r="BC51" s="22"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="22"/>
+    </row>
+    <row r="52" spans="1:57">
+      <c r="A52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
+      <c r="A53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
+      <c r="A54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" s="29" customFormat="1">
+      <c r="A55">
+        <v>45</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="K48" s="30">
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="K55" s="30">
         <f>K9</f>
         <v>40792</v>
       </c>
-      <c r="L48" s="30">
-        <f t="shared" ref="L48:BE48" si="3">L9</f>
+      <c r="L55" s="30">
+        <f t="shared" ref="L55:BE55" si="2">L9</f>
         <v>40793</v>
       </c>
-      <c r="M48" s="30">
-        <f t="shared" si="3"/>
+      <c r="M55" s="30">
+        <f t="shared" si="2"/>
         <v>40794</v>
       </c>
-      <c r="N48" s="30">
-        <f t="shared" si="3"/>
+      <c r="N55" s="30">
+        <f t="shared" si="2"/>
         <v>40795</v>
       </c>
-      <c r="O48" s="30">
-        <f t="shared" si="3"/>
+      <c r="O55" s="30">
+        <f t="shared" si="2"/>
         <v>40796</v>
       </c>
-      <c r="P48" s="30">
-        <f t="shared" si="3"/>
+      <c r="P55" s="30">
+        <f t="shared" si="2"/>
         <v>40797</v>
       </c>
-      <c r="Q48" s="30">
-        <f t="shared" si="3"/>
+      <c r="Q55" s="30">
+        <f t="shared" si="2"/>
         <v>40798</v>
       </c>
-      <c r="R48" s="30">
-        <f t="shared" si="3"/>
+      <c r="R55" s="30">
+        <f t="shared" si="2"/>
         <v>40799</v>
       </c>
-      <c r="S48" s="30">
-        <f t="shared" si="3"/>
+      <c r="S55" s="30">
+        <f t="shared" si="2"/>
         <v>40800</v>
       </c>
-      <c r="T48" s="30">
-        <f t="shared" si="3"/>
+      <c r="T55" s="30">
+        <f t="shared" si="2"/>
         <v>40801</v>
       </c>
-      <c r="U48" s="30">
-        <f t="shared" si="3"/>
+      <c r="U55" s="30">
+        <f t="shared" si="2"/>
         <v>40802</v>
       </c>
-      <c r="V48" s="30">
-        <f t="shared" si="3"/>
+      <c r="V55" s="30">
+        <f t="shared" si="2"/>
         <v>40803</v>
       </c>
-      <c r="W48" s="30">
-        <f t="shared" si="3"/>
+      <c r="W55" s="30">
+        <f t="shared" si="2"/>
         <v>40804</v>
       </c>
-      <c r="X48" s="30">
-        <f t="shared" si="3"/>
+      <c r="X55" s="30">
+        <f t="shared" si="2"/>
         <v>40805</v>
       </c>
-      <c r="Y48" s="30">
-        <f t="shared" si="3"/>
+      <c r="Y55" s="30">
+        <f t="shared" si="2"/>
         <v>40806</v>
       </c>
-      <c r="Z48" s="30">
-        <f t="shared" si="3"/>
+      <c r="Z55" s="30">
+        <f t="shared" si="2"/>
         <v>40807</v>
       </c>
-      <c r="AA48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AA55" s="30">
+        <f t="shared" si="2"/>
         <v>40808</v>
       </c>
-      <c r="AB48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AB55" s="30">
+        <f t="shared" si="2"/>
         <v>40809</v>
       </c>
-      <c r="AC48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AC55" s="30">
+        <f t="shared" si="2"/>
         <v>40810</v>
       </c>
-      <c r="AD48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AD55" s="30">
+        <f t="shared" si="2"/>
         <v>40811</v>
       </c>
-      <c r="AE48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AE55" s="30">
+        <f t="shared" si="2"/>
         <v>40812</v>
       </c>
-      <c r="AF48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AF55" s="30">
+        <f t="shared" si="2"/>
         <v>40813</v>
       </c>
-      <c r="AG48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AG55" s="30">
+        <f t="shared" si="2"/>
         <v>40814</v>
       </c>
-      <c r="AH48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AH55" s="30">
+        <f t="shared" si="2"/>
         <v>40815</v>
       </c>
-      <c r="AI48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AI55" s="30">
+        <f t="shared" si="2"/>
         <v>40816</v>
       </c>
-      <c r="AJ48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AJ55" s="30">
+        <f t="shared" si="2"/>
         <v>40817</v>
       </c>
-      <c r="AK48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AK55" s="30">
+        <f t="shared" si="2"/>
         <v>40818</v>
       </c>
-      <c r="AL48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AL55" s="30">
+        <f t="shared" si="2"/>
         <v>40819</v>
       </c>
-      <c r="AM48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AM55" s="30">
+        <f t="shared" si="2"/>
         <v>40820</v>
       </c>
-      <c r="AN48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AN55" s="30">
+        <f t="shared" si="2"/>
         <v>40821</v>
       </c>
-      <c r="AO48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AO55" s="30">
+        <f t="shared" si="2"/>
         <v>40822</v>
       </c>
-      <c r="AP48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AP55" s="30">
+        <f t="shared" si="2"/>
         <v>40823</v>
       </c>
-      <c r="AQ48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AQ55" s="30">
+        <f t="shared" si="2"/>
         <v>40824</v>
       </c>
-      <c r="AR48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AR55" s="30">
+        <f t="shared" si="2"/>
         <v>40825</v>
       </c>
-      <c r="AS48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AS55" s="30">
+        <f t="shared" si="2"/>
         <v>40826</v>
       </c>
-      <c r="AT48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AT55" s="30">
+        <f t="shared" si="2"/>
         <v>40827</v>
       </c>
-      <c r="AU48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AU55" s="30">
+        <f t="shared" si="2"/>
         <v>40828</v>
       </c>
-      <c r="AV48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AV55" s="30">
+        <f t="shared" si="2"/>
         <v>40829</v>
       </c>
-      <c r="AW48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AW55" s="30">
+        <f t="shared" si="2"/>
         <v>40830</v>
       </c>
-      <c r="AX48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AX55" s="30">
+        <f t="shared" si="2"/>
         <v>40831</v>
       </c>
-      <c r="AY48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AY55" s="30">
+        <f t="shared" si="2"/>
         <v>40832</v>
       </c>
-      <c r="AZ48" s="30">
-        <f t="shared" si="3"/>
+      <c r="AZ55" s="30">
+        <f t="shared" si="2"/>
         <v>40833</v>
       </c>
-      <c r="BA48" s="30">
-        <f t="shared" si="3"/>
+      <c r="BA55" s="30">
+        <f t="shared" si="2"/>
         <v>40834</v>
       </c>
-      <c r="BB48" s="30">
-        <f t="shared" si="3"/>
+      <c r="BB55" s="30">
+        <f t="shared" si="2"/>
         <v>40835</v>
       </c>
-      <c r="BC48" s="30">
-        <f t="shared" si="3"/>
+      <c r="BC55" s="30">
+        <f t="shared" si="2"/>
         <v>40836</v>
       </c>
-      <c r="BD48" s="30">
-        <f t="shared" si="3"/>
+      <c r="BD55" s="30">
+        <f t="shared" si="2"/>
         <v>40837</v>
       </c>
-      <c r="BE48" s="30">
-        <f t="shared" si="3"/>
+      <c r="BE55" s="30">
+        <f t="shared" si="2"/>
         <v>40838</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:BF48">
-    <filterColumn colId="3"/>
+  <autoFilter ref="A10:BF55">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="TinhTH"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="K45:AX45 K35:BE35 K37:BE43 K33:BE33 K17:BE17 K11:BE15 K19:BE22 K24:BE31">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+  <conditionalFormatting sqref="K52:AX52 K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BE35 K37:BE43 K33:BE33 K17:BE17 K11:BE15 K19:BE22 K24:BE31">
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+  <conditionalFormatting sqref="K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H15 H33 H38:H43">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+  <conditionalFormatting sqref="H40 H24 H26:H29 H31:H38 H42 H44:H50 H11:H14 H16:H22">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H15 H33 H38:H43">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="H11:H14 H44:H50 H40 H24 H26:H29 H31:H38 H42 H16:H22">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>AND(H11&lt;&gt;$G$5,$G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>$G$5</formula>
+  <conditionalFormatting sqref="W16:X17">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND(H17&lt;&gt;$G$5,$G17&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H22">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H22">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND(H19&lt;&gt;$G$5,$G19&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H31">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H31">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(H24&lt;&gt;$G$5,$G24&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(H37&lt;&gt;$G$5,$G37&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(H35&lt;&gt;$G$5,$G35&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(H38&lt;&gt;$G$5,$G38&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$G$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(H39&lt;&gt;$G$5,$G39&lt;TODAY())</formula>
+  <conditionalFormatting sqref="W16:X17">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H24:H31 H17 H11:H15 H19:H22 H33 H37:H43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 H40 H26:H29 H44:H50 H24 H31:H38 H11:H22">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D51">
       <formula1>$C$2:$C$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -630,234 +630,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1512,10 +1285,10 @@
   <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1554,7 +1327,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="17">
-        <f>SUMIF($D$10:$D$51,C2,$E$10:$E$51)</f>
+        <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$51,C2,$E$10:$E$51)</f>
         <v>0.5</v>
       </c>
       <c r="E2" s="41">
@@ -1573,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="17">
-        <f>SUMIF($D$10:$D$51,C3,$E$10:$E$51)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E3" s="41">
@@ -1592,7 +1365,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="17">
-        <f>SUMIF($D$10:$D$51,C4,$E$10:$E$51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="41">
@@ -1609,7 +1382,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="17">
-        <f>SUMIF($D$10:$D$51,C5,$E$10:$E$51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="41">
@@ -1628,7 +1401,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="17">
-        <f>SUMIF($D$10:$D$51,C6,$E$10:$E$51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="41">
@@ -1644,7 +1417,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="17">
-        <f>SUMIF($D$10:$D$51,C7,$E$10:$E$51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="41">
@@ -1664,187 +1437,187 @@
         <v>40792</v>
       </c>
       <c r="L8" s="43">
-        <f t="shared" ref="L8:BE8" si="0">L9</f>
+        <f t="shared" ref="L8:BE8" si="1">L9</f>
         <v>40793</v>
       </c>
       <c r="M8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40794</v>
       </c>
       <c r="N8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40795</v>
       </c>
       <c r="O8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40796</v>
       </c>
       <c r="P8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40797</v>
       </c>
       <c r="Q8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40798</v>
       </c>
       <c r="R8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40799</v>
       </c>
       <c r="S8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40800</v>
       </c>
       <c r="T8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40801</v>
       </c>
       <c r="U8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40802</v>
       </c>
       <c r="V8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40803</v>
       </c>
       <c r="W8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40804</v>
       </c>
       <c r="X8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40805</v>
       </c>
       <c r="Y8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40806</v>
       </c>
       <c r="Z8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40807</v>
       </c>
       <c r="AA8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40808</v>
       </c>
       <c r="AB8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40809</v>
       </c>
       <c r="AC8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40810</v>
       </c>
       <c r="AD8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40811</v>
       </c>
       <c r="AE8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40812</v>
       </c>
       <c r="AF8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40813</v>
       </c>
       <c r="AG8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40814</v>
       </c>
       <c r="AH8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40815</v>
       </c>
       <c r="AI8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40816</v>
       </c>
       <c r="AJ8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40817</v>
       </c>
       <c r="AK8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40818</v>
       </c>
       <c r="AL8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40819</v>
       </c>
       <c r="AM8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40820</v>
       </c>
       <c r="AN8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40821</v>
       </c>
       <c r="AO8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40822</v>
       </c>
       <c r="AP8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40823</v>
       </c>
       <c r="AQ8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40824</v>
       </c>
       <c r="AR8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40825</v>
       </c>
       <c r="AS8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40826</v>
       </c>
       <c r="AT8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40827</v>
       </c>
       <c r="AU8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40828</v>
       </c>
       <c r="AV8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40829</v>
       </c>
       <c r="AW8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40830</v>
       </c>
       <c r="AX8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40831</v>
       </c>
       <c r="AY8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40832</v>
       </c>
       <c r="AZ8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40833</v>
       </c>
       <c r="BA8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40834</v>
       </c>
       <c r="BB8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40835</v>
       </c>
       <c r="BC8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40836</v>
       </c>
       <c r="BD8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40837</v>
       </c>
       <c r="BE8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40838</v>
       </c>
     </row>
@@ -1884,183 +1657,183 @@
         <v>40793</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" ref="M9:BE9" si="1">L9+1</f>
+        <f t="shared" ref="M9:BE9" si="2">L9+1</f>
         <v>40794</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40795</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40796</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40797</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40798</v>
       </c>
       <c r="R9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40799</v>
       </c>
       <c r="S9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40800</v>
       </c>
       <c r="T9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40801</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40802</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40803</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40804</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40805</v>
       </c>
       <c r="Y9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40806</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40807</v>
       </c>
       <c r="AA9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40808</v>
       </c>
       <c r="AB9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40809</v>
       </c>
       <c r="AC9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40810</v>
       </c>
       <c r="AD9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40811</v>
       </c>
       <c r="AE9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40812</v>
       </c>
       <c r="AF9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40813</v>
       </c>
       <c r="AG9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40814</v>
       </c>
       <c r="AH9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40815</v>
       </c>
       <c r="AI9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40816</v>
       </c>
       <c r="AJ9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40817</v>
       </c>
       <c r="AK9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40818</v>
       </c>
       <c r="AL9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40819</v>
       </c>
       <c r="AM9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40820</v>
       </c>
       <c r="AN9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40821</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40822</v>
       </c>
       <c r="AP9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40823</v>
       </c>
       <c r="AQ9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40824</v>
       </c>
       <c r="AR9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40825</v>
       </c>
       <c r="AS9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40826</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40827</v>
       </c>
       <c r="AU9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40828</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40829</v>
       </c>
       <c r="AW9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40830</v>
       </c>
       <c r="AX9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40831</v>
       </c>
       <c r="AY9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40832</v>
       </c>
       <c r="AZ9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40833</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40834</v>
       </c>
       <c r="BB9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40835</v>
       </c>
       <c r="BC9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40836</v>
       </c>
       <c r="BD9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40837</v>
       </c>
       <c r="BE9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40838</v>
       </c>
     </row>
@@ -2282,7 +2055,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" hidden="1">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2361,7 +2134,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" hidden="1">
+    <row r="14" spans="1:57">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3095,7 +2868,7 @@
       <c r="BD23" s="22"/>
       <c r="BE23" s="22"/>
     </row>
-    <row r="24" spans="1:57" s="28" customFormat="1">
+    <row r="24" spans="1:57" s="28" customFormat="1" hidden="1">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3326,7 +3099,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" hidden="1">
+    <row r="27" spans="1:57">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3407,7 +3180,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" hidden="1">
+    <row r="28" spans="1:57">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3488,7 +3261,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57">
+    <row r="29" spans="1:57" hidden="1">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3630,7 +3403,7 @@
       <c r="BD30" s="22"/>
       <c r="BE30" s="22"/>
     </row>
-    <row r="31" spans="1:57" hidden="1">
+    <row r="31" spans="1:57">
       <c r="A31">
         <v>21</v>
       </c>
@@ -3709,7 +3482,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="30" hidden="1">
+    <row r="32" spans="1:57" ht="30">
       <c r="A32">
         <v>22</v>
       </c>
@@ -3788,7 +3561,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="30" hidden="1">
+    <row r="33" spans="1:57" ht="30">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3867,7 +3640,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="30" hidden="1">
+    <row r="34" spans="1:57" ht="30">
       <c r="A34">
         <v>24</v>
       </c>
@@ -3946,7 +3719,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:57" hidden="1">
       <c r="A35">
         <v>25</v>
       </c>
@@ -4033,7 +3806,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="30">
+    <row r="36" spans="1:57" ht="30" hidden="1">
       <c r="A36">
         <v>26</v>
       </c>
@@ -4116,7 +3889,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="30" hidden="1">
+    <row r="37" spans="1:57" ht="30">
       <c r="A37">
         <v>27</v>
       </c>
@@ -4197,7 +3970,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" hidden="1">
+    <row r="38" spans="1:57">
       <c r="A38">
         <v>28</v>
       </c>
@@ -4477,7 +4250,7 @@
       <c r="BD41" s="22"/>
       <c r="BE41" s="22"/>
     </row>
-    <row r="42" spans="1:57" ht="30">
+    <row r="42" spans="1:57" ht="30" hidden="1">
       <c r="A42">
         <v>32</v>
       </c>
@@ -4625,7 +4398,7 @@
       <c r="BD43" s="22"/>
       <c r="BE43" s="22"/>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:57" hidden="1">
       <c r="A44">
         <v>34</v>
       </c>
@@ -4702,7 +4475,7 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
     </row>
-    <row r="45" spans="1:57">
+    <row r="45" spans="1:57" hidden="1">
       <c r="A45">
         <v>35</v>
       </c>
@@ -4856,7 +4629,7 @@
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
     </row>
-    <row r="47" spans="1:57">
+    <row r="47" spans="1:57" hidden="1">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4933,7 +4706,7 @@
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
     </row>
-    <row r="48" spans="1:57">
+    <row r="48" spans="1:57" hidden="1">
       <c r="A48">
         <v>38</v>
       </c>
@@ -5008,7 +4781,7 @@
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
     </row>
-    <row r="49" spans="1:57">
+    <row r="49" spans="1:57" hidden="1">
       <c r="A49">
         <v>39</v>
       </c>
@@ -5083,7 +4856,7 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
     </row>
-    <row r="50" spans="1:57" ht="30">
+    <row r="50" spans="1:57" ht="30" hidden="1">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5251,187 +5024,187 @@
         <v>40792</v>
       </c>
       <c r="L55" s="30">
-        <f t="shared" ref="L55:BE55" si="2">L9</f>
+        <f t="shared" ref="L55:BE55" si="3">L9</f>
         <v>40793</v>
       </c>
       <c r="M55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40794</v>
       </c>
       <c r="N55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40795</v>
       </c>
       <c r="O55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40796</v>
       </c>
       <c r="P55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40797</v>
       </c>
       <c r="Q55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40798</v>
       </c>
       <c r="R55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40799</v>
       </c>
       <c r="S55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40800</v>
       </c>
       <c r="T55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40801</v>
       </c>
       <c r="U55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40802</v>
       </c>
       <c r="V55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40803</v>
       </c>
       <c r="W55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40804</v>
       </c>
       <c r="X55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40805</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40806</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40807</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40808</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40809</v>
       </c>
       <c r="AC55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40810</v>
       </c>
       <c r="AD55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40811</v>
       </c>
       <c r="AE55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40812</v>
       </c>
       <c r="AF55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40813</v>
       </c>
       <c r="AG55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40814</v>
       </c>
       <c r="AH55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40815</v>
       </c>
       <c r="AI55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40816</v>
       </c>
       <c r="AJ55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40817</v>
       </c>
       <c r="AK55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40818</v>
       </c>
       <c r="AL55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40819</v>
       </c>
       <c r="AM55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40820</v>
       </c>
       <c r="AN55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40821</v>
       </c>
       <c r="AO55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40822</v>
       </c>
       <c r="AP55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40823</v>
       </c>
       <c r="AQ55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40824</v>
       </c>
       <c r="AR55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40825</v>
       </c>
       <c r="AS55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40826</v>
       </c>
       <c r="AT55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40827</v>
       </c>
       <c r="AU55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40828</v>
       </c>
       <c r="AV55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40829</v>
       </c>
       <c r="AW55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40830</v>
       </c>
       <c r="AX55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40831</v>
       </c>
       <c r="AY55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40832</v>
       </c>
       <c r="AZ55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40833</v>
       </c>
       <c r="BA55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40834</v>
       </c>
       <c r="BB55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40835</v>
       </c>
       <c r="BC55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40836</v>
       </c>
       <c r="BD55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40837</v>
       </c>
       <c r="BE55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40838</v>
       </c>
     </row>
@@ -5439,49 +5212,49 @@
   <autoFilter ref="A10:BF55">
     <filterColumn colId="3">
       <filters blank="1">
-        <filter val="TinhTH"/>
+        <filter val="LinhDH"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="K52:AX52 K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="37" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40 H24 H26:H29 H31:H38 H42 H44:H50 H11:H14 H16:H22">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14 H44:H50 H40 H24 H26:H29 H31:H38 H42 H16:H22">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>AND(H11&lt;&gt;$G$5,$G11&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:X17">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:X17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$55</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1088,7 +1088,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1285,10 +1285,10 @@
   <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1897,7 +1897,7 @@
       <c r="BD10" s="22"/>
       <c r="BE10" s="22"/>
     </row>
-    <row r="11" spans="1:57" hidden="1">
+    <row r="11" spans="1:57">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57" hidden="1">
+    <row r="12" spans="1:57">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" hidden="1">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="BD15" s="22"/>
       <c r="BE15" s="22"/>
     </row>
-    <row r="16" spans="1:57" hidden="1">
+    <row r="16" spans="1:57">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:57" hidden="1">
+    <row r="17" spans="1:57">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:57" hidden="1">
+    <row r="18" spans="1:57">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>40805</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -2501,7 +2501,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:57" hidden="1">
+    <row r="19" spans="1:57">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>40806</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -2576,7 +2576,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57" hidden="1">
+    <row r="20" spans="1:57">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>40807</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -2651,7 +2651,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" hidden="1">
+    <row r="21" spans="1:57">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57" hidden="1">
+    <row r="22" spans="1:57">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:57" hidden="1">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:57" hidden="1">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="BD30" s="22"/>
       <c r="BE30" s="22"/>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:57" hidden="1">
       <c r="A31">
         <v>21</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="30">
+    <row r="32" spans="1:57" ht="30" hidden="1">
       <c r="A32">
         <v>22</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="30">
+    <row r="33" spans="1:57" ht="30" hidden="1">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="30">
+    <row r="34" spans="1:57" ht="30" hidden="1">
       <c r="A34">
         <v>24</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="30">
+    <row r="37" spans="1:57" ht="30" hidden="1">
       <c r="A37">
         <v>27</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:57" hidden="1">
       <c r="A38">
         <v>28</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
     </row>
-    <row r="46" spans="1:57" hidden="1">
+    <row r="46" spans="1:57">
       <c r="A46">
         <v>36</v>
       </c>
@@ -5211,8 +5211,8 @@
   </sheetData>
   <autoFilter ref="A10:BF55">
     <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="LinhDH"/>
+      <filters>
+        <filter val="Tund"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$55</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1279,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BE55"/>
@@ -1288,7 +1288,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2055,7 +2055,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57" hidden="1">
+    <row r="13" spans="1:57">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" hidden="1">
+    <row r="14" spans="1:57">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="BD23" s="22"/>
       <c r="BE23" s="22"/>
     </row>
-    <row r="24" spans="1:57" s="28" customFormat="1" hidden="1">
+    <row r="24" spans="1:57" s="28" customFormat="1">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BD25" s="22"/>
       <c r="BE25" s="22"/>
     </row>
-    <row r="26" spans="1:57" hidden="1">
+    <row r="26" spans="1:57">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" hidden="1">
+    <row r="27" spans="1:57">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" hidden="1">
+    <row r="28" spans="1:57">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" hidden="1">
+    <row r="29" spans="1:57">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="BD30" s="22"/>
       <c r="BE30" s="22"/>
     </row>
-    <row r="31" spans="1:57" hidden="1">
+    <row r="31" spans="1:57">
       <c r="A31">
         <v>21</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>40809</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23" t="s">
@@ -3482,7 +3482,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="30" hidden="1">
+    <row r="32" spans="1:57" ht="30">
       <c r="A32">
         <v>22</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>40805</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23" t="s">
@@ -3561,7 +3561,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="30" hidden="1">
+    <row r="33" spans="1:57" ht="30">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>40811</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23" t="s">
@@ -3640,7 +3640,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="30" hidden="1">
+    <row r="34" spans="1:57" ht="30">
       <c r="A34">
         <v>24</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>40807</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="s">
@@ -3719,7 +3719,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57" hidden="1">
+    <row r="35" spans="1:57">
       <c r="A35">
         <v>25</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>40808</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23" t="s">
@@ -3806,7 +3806,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="30" hidden="1">
+    <row r="36" spans="1:57" ht="30">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>40803</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23" t="s">
@@ -3889,7 +3889,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="30" hidden="1">
+    <row r="37" spans="1:57" ht="30">
       <c r="A37">
         <v>27</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" hidden="1">
+    <row r="38" spans="1:57">
       <c r="A38">
         <v>28</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="BD41" s="22"/>
       <c r="BE41" s="22"/>
     </row>
-    <row r="42" spans="1:57" ht="30" hidden="1">
+    <row r="42" spans="1:57" ht="30">
       <c r="A42">
         <v>32</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="BD43" s="22"/>
       <c r="BE43" s="22"/>
     </row>
-    <row r="44" spans="1:57" hidden="1">
+    <row r="44" spans="1:57">
       <c r="A44">
         <v>34</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
     </row>
-    <row r="45" spans="1:57" hidden="1">
+    <row r="45" spans="1:57">
       <c r="A45">
         <v>35</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
     </row>
-    <row r="47" spans="1:57" hidden="1">
+    <row r="47" spans="1:57">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
     </row>
-    <row r="48" spans="1:57" hidden="1">
+    <row r="48" spans="1:57">
       <c r="A48">
         <v>38</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
     </row>
-    <row r="49" spans="1:57" hidden="1">
+    <row r="49" spans="1:57">
       <c r="A49">
         <v>39</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
     </row>
-    <row r="50" spans="1:57" ht="30" hidden="1">
+    <row r="50" spans="1:57" ht="30">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5210,11 +5210,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A10:BF55">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Tund"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <conditionalFormatting sqref="K52:AX52 K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
     <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="120">
   <si>
     <t>GVCM</t>
   </si>
@@ -384,6 +384,15 @@
   <si>
     <t>Nội dung thanh toán( còn thiếu học liệu)</t>
   </si>
+  <si>
+    <t>Số công việc</t>
+  </si>
+  <si>
+    <t>Đã xong</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +462,13 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -537,10 +553,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,9 +643,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1285,10 +1304,10 @@
   <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,7 +1320,9 @@
     <col min="6" max="6" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="16" customWidth="1"/>
-    <col min="11" max="57" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="57" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -1340,6 +1361,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="16"/>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <f>COUNTA(H11:H50)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:57">
       <c r="C3" s="32" t="s">
@@ -1359,6 +1387,17 @@
         <v>41</v>
       </c>
       <c r="I3" s="16"/>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(H11:H50,"Đã xong")</f>
+        <v>23</v>
+      </c>
+      <c r="M3" s="47">
+        <f>L3/L2</f>
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="4" spans="1:57">
       <c r="C4" s="32" t="s">
@@ -1376,6 +1415,13 @@
       </c>
       <c r="G4" s="18"/>
       <c r="I4" s="16"/>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4">
+        <f>L2-L3</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:57">
       <c r="C5" s="32" t="s">

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -166,9 +166,6 @@
     <t>Đã xong</t>
   </si>
   <si>
-    <t>Mynt</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>ThangTM</t>
   </si>
 </sst>
 </file>
@@ -640,10 +640,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1192,7 +1192,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,15 +1304,15 @@
   <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="48" style="38" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1333,10 +1333,10 @@
         <v>37</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>38</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="2" spans="1:57">
       <c r="C2" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$51,C2,$E$10:$E$51)</f>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I2" s="16"/>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2">
         <f>COUNTA(H11:H50)</f>
@@ -1388,20 +1388,20 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3">
         <f>COUNTIF(H11:H50,"Đã xong")</f>
-        <v>23</v>
-      </c>
-      <c r="M3" s="47">
+        <v>24</v>
+      </c>
+      <c r="M3" s="46">
         <f>L3/L2</f>
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="C4" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="0"/>
@@ -1416,11 +1416,11 @@
       <c r="G4" s="18"/>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4">
         <f>L2-L3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="6" spans="1:57">
       <c r="C6" s="32" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="7" spans="1:57">
       <c r="C7" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
@@ -1669,31 +1669,31 @@
     </row>
     <row r="9" spans="1:57" s="19" customFormat="1" ht="30">
       <c r="B9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="K9" s="20">
         <v>40792</v>
@@ -1886,7 +1886,7 @@
     <row r="10" spans="1:57" s="21" customFormat="1">
       <c r="B10" s="22"/>
       <c r="C10" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>40</v>
@@ -1971,10 +1971,10 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>40</v>
@@ -2050,10 +2050,10 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2107,10 +2107,10 @@
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23">
         <v>1</v>
@@ -2129,10 +2129,10 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2186,10 +2186,10 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="23">
         <v>0.5</v>
@@ -2213,10 +2213,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>40</v>
@@ -2358,7 +2358,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>40</v>
@@ -2434,7 +2434,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>40</v>
@@ -2511,7 +2511,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>40</v>
@@ -2587,7 +2587,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>40</v>
@@ -2663,7 +2663,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>40</v>
@@ -2734,7 +2734,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>40</v>
@@ -2813,13 +2813,13 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -2920,10 +2920,10 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="24">
@@ -2939,19 +2939,19 @@
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3064,10 +3064,10 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3091,22 +3091,22 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -3151,10 +3151,10 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3178,13 +3178,13 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3232,10 +3232,10 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3259,13 +3259,13 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3313,10 +3313,10 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24">
@@ -3332,16 +3332,16 @@
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3455,10 +3455,10 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3493,10 +3493,10 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -3534,10 +3534,10 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3568,10 +3568,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3653,10 +3653,10 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD33" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
@@ -3692,10 +3692,10 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3728,10 +3728,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -3771,10 +3771,10 @@
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3804,22 +3804,22 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -3858,10 +3858,10 @@
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3888,16 +3888,16 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -3941,10 +3941,10 @@
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3983,13 +3983,13 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG37" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
@@ -4022,10 +4022,10 @@
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4064,22 +4064,22 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -4302,10 +4302,10 @@
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24">
@@ -4332,22 +4332,22 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z42" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -4450,10 +4450,10 @@
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24">
@@ -4470,10 +4470,10 @@
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -4527,10 +4527,10 @@
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24">
@@ -4549,10 +4549,10 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>40</v>
@@ -4626,10 +4626,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4681,10 +4681,10 @@
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="24">
@@ -4696,10 +4696,10 @@
         <v>40798</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="1"/>
@@ -4709,7 +4709,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -4758,10 +4758,10 @@
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24">
@@ -4785,7 +4785,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4833,10 +4833,10 @@
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24">
@@ -4861,7 +4861,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -4908,10 +4908,10 @@
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24">
@@ -4937,7 +4937,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -5060,7 +5060,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>

--- a/trunk/01. Documents/TRM Project v2011.09.10.xlsx
+++ b/trunk/01. Documents/TRM Project v2011.09.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$64</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>GVCM</t>
   </si>
@@ -392,6 +392,24 @@
   </si>
   <si>
     <t>ThangTM</t>
+  </si>
+  <si>
+    <t>Chuẩn hóa dữ liệu</t>
+  </si>
+  <si>
+    <t>Danh sách giảng viên (từ 2010 - &gt; 06/10/2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách hợp đồng </t>
+  </si>
+  <si>
+    <t>- B1. Tester (làm mỗi loại hợp đồng 5 hợp đồng khác nhau)</t>
+  </si>
+  <si>
+    <t>- B2. Khách hàng</t>
+  </si>
+  <si>
+    <t>- B3. Toàn bộ hợp đồng</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -643,6 +661,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,7 +1128,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,7 +1210,9 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47"/>
@@ -1202,7 +1225,9 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="47"/>
@@ -1215,7 +1240,9 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
@@ -1227,7 +1254,9 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
@@ -1301,13 +1330,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE55"/>
+  <dimension ref="A1:BE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1348,7 +1377,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="17">
-        <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$51,C2,$E$10:$E$51)</f>
+        <f>SUMIF($D$10:$D$60,C2,$E$10:$E$60)</f>
         <v>0.5</v>
       </c>
       <c r="E2" s="41">
@@ -1374,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$60,C3,$E$10:$E$60)</f>
         <v>3</v>
       </c>
       <c r="E3" s="41">
@@ -1404,7 +1433,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$60,C4,$E$10:$E$60)</f>
         <v>1</v>
       </c>
       <c r="E4" s="41">
@@ -1428,7 +1457,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$60,C5,$E$10:$E$60)</f>
         <v>0</v>
       </c>
       <c r="E5" s="41">
@@ -1447,7 +1476,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$60,C6,$E$10:$E$60)</f>
         <v>0</v>
       </c>
       <c r="E6" s="41">
@@ -1463,7 +1492,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$10:$D$60,C7,$E$10:$E$60)</f>
         <v>0</v>
       </c>
       <c r="E7" s="41">
@@ -1483,187 +1512,187 @@
         <v>40792</v>
       </c>
       <c r="L8" s="43">
-        <f t="shared" ref="L8:BE8" si="1">L9</f>
+        <f t="shared" ref="L8:BE8" si="0">L9</f>
         <v>40793</v>
       </c>
       <c r="M8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40794</v>
       </c>
       <c r="N8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40795</v>
       </c>
       <c r="O8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40796</v>
       </c>
       <c r="P8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40797</v>
       </c>
       <c r="Q8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40798</v>
       </c>
       <c r="R8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40799</v>
       </c>
       <c r="S8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40800</v>
       </c>
       <c r="T8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40801</v>
       </c>
       <c r="U8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40802</v>
       </c>
       <c r="V8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40803</v>
       </c>
       <c r="W8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40804</v>
       </c>
       <c r="X8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40805</v>
       </c>
       <c r="Y8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40806</v>
       </c>
       <c r="Z8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40807</v>
       </c>
       <c r="AA8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40808</v>
       </c>
       <c r="AB8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40809</v>
       </c>
       <c r="AC8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40810</v>
       </c>
       <c r="AD8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40811</v>
       </c>
       <c r="AE8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40812</v>
       </c>
       <c r="AF8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40813</v>
       </c>
       <c r="AG8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40814</v>
       </c>
       <c r="AH8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40815</v>
       </c>
       <c r="AI8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40816</v>
       </c>
       <c r="AJ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40817</v>
       </c>
       <c r="AK8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40818</v>
       </c>
       <c r="AL8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40819</v>
       </c>
       <c r="AM8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40820</v>
       </c>
       <c r="AN8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40821</v>
       </c>
       <c r="AO8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40822</v>
       </c>
       <c r="AP8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40823</v>
       </c>
       <c r="AQ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40824</v>
       </c>
       <c r="AR8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40825</v>
       </c>
       <c r="AS8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40826</v>
       </c>
       <c r="AT8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40827</v>
       </c>
       <c r="AU8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40828</v>
       </c>
       <c r="AV8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40829</v>
       </c>
       <c r="AW8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40830</v>
       </c>
       <c r="AX8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40831</v>
       </c>
       <c r="AY8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40832</v>
       </c>
       <c r="AZ8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40833</v>
       </c>
       <c r="BA8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40834</v>
       </c>
       <c r="BB8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40835</v>
       </c>
       <c r="BC8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40836</v>
       </c>
       <c r="BD8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40837</v>
       </c>
       <c r="BE8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40838</v>
       </c>
     </row>
@@ -1703,183 +1732,183 @@
         <v>40793</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" ref="M9:BE9" si="2">L9+1</f>
+        <f t="shared" ref="M9:BE9" si="1">L9+1</f>
         <v>40794</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40795</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40796</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40797</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40798</v>
       </c>
       <c r="R9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40799</v>
       </c>
       <c r="S9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40800</v>
       </c>
       <c r="T9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40801</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40802</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40803</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40804</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40805</v>
       </c>
       <c r="Y9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40806</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40807</v>
       </c>
       <c r="AA9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40808</v>
       </c>
       <c r="AB9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40809</v>
       </c>
       <c r="AC9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40810</v>
       </c>
       <c r="AD9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40811</v>
       </c>
       <c r="AE9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40812</v>
       </c>
       <c r="AF9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40813</v>
       </c>
       <c r="AG9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40814</v>
       </c>
       <c r="AH9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40815</v>
       </c>
       <c r="AI9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40816</v>
       </c>
       <c r="AJ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40817</v>
       </c>
       <c r="AK9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40818</v>
       </c>
       <c r="AL9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40819</v>
       </c>
       <c r="AM9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40820</v>
       </c>
       <c r="AN9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40821</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40822</v>
       </c>
       <c r="AP9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40823</v>
       </c>
       <c r="AQ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40824</v>
       </c>
       <c r="AR9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40825</v>
       </c>
       <c r="AS9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40826</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40827</v>
       </c>
       <c r="AU9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40828</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40829</v>
       </c>
       <c r="AW9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40830</v>
       </c>
       <c r="AX9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40831</v>
       </c>
       <c r="AY9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40832</v>
       </c>
       <c r="AZ9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40833</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40834</v>
       </c>
       <c r="BB9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40835</v>
       </c>
       <c r="BC9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40836</v>
       </c>
       <c r="BD9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40837</v>
       </c>
       <c r="BE9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40838</v>
       </c>
     </row>
@@ -1958,12 +1987,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="24">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$55,$A$55-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",K11:BE$55,$A$55-$A11+1,FALSE),0)</f>
-        <v>40792</v>
+        <f>IFERROR( HLOOKUP("BE",K11:BE$64,$A$64-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("B",K11:BE$64,$A$64-$A11+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G11" s="24">
-        <f>IFERROR( HLOOKUP("BE",K11:BE$55,$A$55-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",K11:BE$55,$A$55-$A11+1,FALSE),0)</f>
-        <v>40793</v>
+        <f>IFERROR( HLOOKUP("BE",K11:BE$64,$A$64-$A11+1,FALSE),0)+ IFERROR( HLOOKUP("E",K11:BE$64,$A$64-$A11+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>43</v>
@@ -2037,12 +2066,12 @@
         <v>2</v>
       </c>
       <c r="F12" s="24">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$55,$A$55-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",K12:BE$55,$A$55-$A12+1,FALSE),0)</f>
-        <v>40792</v>
+        <f>IFERROR( HLOOKUP("BE",K12:BE$64,$A$64-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("B",K12:BE$64,$A$64-$A12+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G12" s="24">
-        <f>IFERROR( HLOOKUP("BE",K12:BE$55,$A$55-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",K12:BE$55,$A$55-$A12+1,FALSE),0)</f>
-        <v>40793</v>
+        <f>IFERROR( HLOOKUP("BE",K12:BE$64,$A$64-$A12+1,FALSE),0)+ IFERROR( HLOOKUP("E",K12:BE$64,$A$64-$A12+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>43</v>
@@ -2116,12 +2145,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="24">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$55,$A$55-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",K13:BE$55,$A$55-$A13+1,FALSE),0)</f>
-        <v>40792</v>
+        <f>IFERROR( HLOOKUP("BE",K13:BE$64,$A$64-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("B",K13:BE$64,$A$64-$A13+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G13" s="24">
-        <f>IFERROR( HLOOKUP("BE",K13:BE$55,$A$55-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",K13:BE$55,$A$55-$A13+1,FALSE),0)</f>
-        <v>40793</v>
+        <f>IFERROR( HLOOKUP("BE",K13:BE$64,$A$64-$A13+1,FALSE),0)+ IFERROR( HLOOKUP("E",K13:BE$64,$A$64-$A13+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>43</v>
@@ -2195,12 +2224,12 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="24">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$55,$A$55-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",K14:BE$55,$A$55-$A14+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K14:BE$64,$A$64-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("B",K14:BE$64,$A$64-$A14+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G14" s="24">
-        <f>IFERROR( HLOOKUP("BE",K14:BE$55,$A$55-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$55,$A$55-$A14+1,FALSE),0)</f>
-        <v>40798</v>
+        <f>IFERROR( HLOOKUP("BE",K14:BE$64,$A$64-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$64,$A$64-$A14+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>43</v>
@@ -2335,12 +2364,12 @@
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24">
-        <f>IFERROR( HLOOKUP("BE",K16:BE$55,$A$55-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",K16:BE$55,$A$55-$A16+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K16:BE$64,$A$64-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("B",K16:BE$64,$A$64-$A16+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G16" s="24">
-        <f>IFERROR( HLOOKUP("BE",K16:BE$55,$A$55-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",K16:BE$55,$A$55-$A16+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K16:BE$64,$A$64-$A16+1,FALSE),0)+ IFERROR( HLOOKUP("E",K16:BE$64,$A$64-$A16+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>43</v>
@@ -2410,12 +2439,12 @@
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$55,$A$55-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",K17:BE$55,$A$55-$A17+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K17:BE$64,$A$64-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("B",K17:BE$64,$A$64-$A17+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G17" s="24">
-        <f>IFERROR( HLOOKUP("BE",K17:BE$55,$A$55-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",K17:BE$55,$A$55-$A17+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K17:BE$64,$A$64-$A17+1,FALSE),0)+ IFERROR( HLOOKUP("E",K17:BE$64,$A$64-$A17+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>43</v>
@@ -2485,12 +2514,12 @@
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24">
-        <f>IFERROR( HLOOKUP("BE",K18:BE$55,$A$55-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",K18:BE$55,$A$55-$A18+1,FALSE),0)</f>
-        <v>40805</v>
+        <f>IFERROR( HLOOKUP("BE",K18:BE$64,$A$64-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("B",K18:BE$64,$A$64-$A18+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G18" s="24">
-        <f>IFERROR( HLOOKUP("BE",K18:BE$55,$A$55-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",K18:BE$55,$A$55-$A18+1,FALSE),0)</f>
-        <v>40805</v>
+        <f>IFERROR( HLOOKUP("BE",K18:BE$64,$A$64-$A18+1,FALSE),0)+ IFERROR( HLOOKUP("E",K18:BE$64,$A$64-$A18+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>43</v>
@@ -2560,12 +2589,12 @@
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24">
-        <f>IFERROR( HLOOKUP("BE",K19:BE$55,$A$55-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",K19:BE$55,$A$55-$A19+1,FALSE),0)</f>
-        <v>40806</v>
+        <f>IFERROR( HLOOKUP("BE",K19:BE$64,$A$64-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("B",K19:BE$64,$A$64-$A19+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G19" s="24">
-        <f>IFERROR( HLOOKUP("BE",K19:BE$55,$A$55-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",K19:BE$55,$A$55-$A19+1,FALSE),0)</f>
-        <v>40806</v>
+        <f>IFERROR( HLOOKUP("BE",K19:BE$64,$A$64-$A19+1,FALSE),0)+ IFERROR( HLOOKUP("E",K19:BE$64,$A$64-$A19+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>43</v>
@@ -2635,12 +2664,12 @@
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$55,$A$55-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",K20:BE$55,$A$55-$A20+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K20:BE$64,$A$64-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("B",K20:BE$64,$A$64-$A20+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G20" s="24">
-        <f>IFERROR( HLOOKUP("BE",K20:BE$55,$A$55-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",K20:BE$55,$A$55-$A20+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K20:BE$64,$A$64-$A20+1,FALSE),0)+ IFERROR( HLOOKUP("E",K20:BE$64,$A$64-$A20+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>43</v>
@@ -2710,12 +2739,12 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="24">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$55,$A$55-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",K21:BE$55,$A$55-$A21+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K21:BE$64,$A$64-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("B",K21:BE$64,$A$64-$A21+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G21" s="24">
-        <f>IFERROR( HLOOKUP("BE",K21:BE$55,$A$55-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",K21:BE$55,$A$55-$A21+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K21:BE$64,$A$64-$A21+1,FALSE),0)+ IFERROR( HLOOKUP("E",K21:BE$64,$A$64-$A21+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>43</v>
@@ -2785,12 +2814,12 @@
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="24">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$55,$A$55-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",K22:BE$55,$A$55-$A22+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K22:BE$64,$A$64-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("B",K22:BE$64,$A$64-$A22+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G22" s="24">
-        <f>IFERROR( HLOOKUP("BE",K22:BE$55,$A$55-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",K22:BE$55,$A$55-$A22+1,FALSE),0)</f>
-        <v>40809</v>
+        <f>IFERROR( HLOOKUP("BE",K22:BE$64,$A$64-$A22+1,FALSE),0)+ IFERROR( HLOOKUP("E",K22:BE$64,$A$64-$A22+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>39</v>
@@ -2927,12 +2956,12 @@
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="24">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$55,$A$55-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",K24:BE$55,$A$55-$A24+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K24:BE$64,$A$64-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("B",K24:BE$64,$A$64-$A24+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="24">
-        <f>IFERROR( HLOOKUP("BE",K24:BE$55,$A$55-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",K24:BE$55,$A$55-$A24+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K24:BE$64,$A$64-$A24+1,FALSE),0)+ IFERROR( HLOOKUP("E",K24:BE$64,$A$64-$A24+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>43</v>
@@ -3071,12 +3100,12 @@
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$55,$A$55-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",K26:BE$55,$A$55-$A26+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K26:BE$64,$A$64-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("B",K26:BE$64,$A$64-$A26+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G26" s="24">
-        <f>IFERROR( HLOOKUP("BE",K26:BE$55,$A$55-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",K26:BE$55,$A$55-$A26+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K26:BE$64,$A$64-$A26+1,FALSE),0)+ IFERROR( HLOOKUP("E",K26:BE$64,$A$64-$A26+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>43</v>
@@ -3158,12 +3187,12 @@
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24">
-        <f>IFERROR( HLOOKUP("BE",K27:BE$55,$A$55-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",K27:BE$55,$A$55-$A27+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K27:BE$64,$A$64-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("B",K27:BE$64,$A$64-$A27+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G27" s="24">
-        <f>IFERROR( HLOOKUP("BE",K27:BE$55,$A$55-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",K27:BE$55,$A$55-$A27+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K27:BE$64,$A$64-$A27+1,FALSE),0)+ IFERROR( HLOOKUP("E",K27:BE$64,$A$64-$A27+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>43</v>
@@ -3239,12 +3268,12 @@
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$55,$A$55-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",K28:BE$55,$A$55-$A28+1,FALSE),0)</f>
-        <v>40797</v>
+        <f>IFERROR( HLOOKUP("BE",K28:BE$64,$A$64-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("B",K28:BE$64,$A$64-$A28+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G28" s="24">
-        <f>IFERROR( HLOOKUP("BE",K28:BE$55,$A$55-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",K28:BE$55,$A$55-$A28+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K28:BE$64,$A$64-$A28+1,FALSE),0)+ IFERROR( HLOOKUP("E",K28:BE$64,$A$64-$A28+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>43</v>
@@ -3320,12 +3349,12 @@
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$55,$A$55-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",K29:BE$55,$A$55-$A29+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K29:BE$64,$A$64-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("B",K29:BE$64,$A$64-$A29+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G29" s="24">
-        <f>IFERROR( HLOOKUP("BE",K29:BE$55,$A$55-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",K29:BE$55,$A$55-$A29+1,FALSE),0)</f>
-        <v>40796</v>
+        <f>IFERROR( HLOOKUP("BE",K29:BE$64,$A$64-$A29+1,FALSE),0)+ IFERROR( HLOOKUP("E",K29:BE$64,$A$64-$A29+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>43</v>
@@ -3462,12 +3491,12 @@
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$55,$A$55-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",K31:BE$55,$A$55-$A31+1,FALSE),0)</f>
-        <v>40808</v>
+        <f>IFERROR( HLOOKUP("BE",K31:BE$64,$A$64-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("B",K31:BE$64,$A$64-$A31+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G31" s="24">
-        <f>IFERROR( HLOOKUP("BE",K31:BE$55,$A$55-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",K31:BE$55,$A$55-$A31+1,FALSE),0)</f>
-        <v>40809</v>
+        <f>IFERROR( HLOOKUP("BE",K31:BE$64,$A$64-$A31+1,FALSE),0)+ IFERROR( HLOOKUP("E",K31:BE$64,$A$64-$A31+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>43</v>
@@ -3541,12 +3570,12 @@
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24">
-        <f>IFERROR( HLOOKUP("BE",K32:BE$55,$A$55-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",K32:BE$55,$A$55-$A32+1,FALSE),0)</f>
-        <v>40804</v>
+        <f>IFERROR( HLOOKUP("BE",K32:BE$64,$A$64-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("B",K32:BE$64,$A$64-$A32+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G32" s="24">
-        <f>IFERROR( HLOOKUP("BE",K32:BE$55,$A$55-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",K32:BE$55,$A$55-$A32+1,FALSE),0)</f>
-        <v>40805</v>
+        <f>IFERROR( HLOOKUP("BE",K32:BE$64,$A$64-$A32+1,FALSE),0)+ IFERROR( HLOOKUP("E",K32:BE$64,$A$64-$A32+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>43</v>
@@ -3620,12 +3649,12 @@
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$55,$A$55-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",K33:BE$55,$A$55-$A33+1,FALSE),0)</f>
-        <v>40810</v>
+        <f>IFERROR( HLOOKUP("BE",K33:BE$64,$A$64-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("B",K33:BE$64,$A$64-$A33+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G33" s="24">
-        <f>IFERROR( HLOOKUP("BE",K33:BE$55,$A$55-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",K33:BE$55,$A$55-$A33+1,FALSE),0)</f>
-        <v>40811</v>
+        <f>IFERROR( HLOOKUP("BE",K33:BE$64,$A$64-$A33+1,FALSE),0)+ IFERROR( HLOOKUP("E",K33:BE$64,$A$64-$A33+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>41</v>
@@ -3699,12 +3728,12 @@
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24">
-        <f>IFERROR( HLOOKUP("BE",K34:BE$55,$A$55-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",K34:BE$55,$A$55-$A34+1,FALSE),0)</f>
-        <v>40806</v>
+        <f>IFERROR( HLOOKUP("BE",K34:BE$64,$A$64-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("B",K34:BE$64,$A$64-$A34+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G34" s="24">
-        <f>IFERROR( HLOOKUP("BE",K34:BE$55,$A$55-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",K34:BE$55,$A$55-$A34+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K34:BE$64,$A$64-$A34+1,FALSE),0)+ IFERROR( HLOOKUP("E",K34:BE$64,$A$64-$A34+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>43</v>
@@ -3778,12 +3807,12 @@
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$55,$A$55-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",K35:BE$55,$A$55-$A35+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K35:BE$64,$A$64-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("B",K35:BE$64,$A$64-$A35+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G35" s="24">
-        <f>IFERROR( HLOOKUP("BE",K35:BE$55,$A$55-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",K35:BE$55,$A$55-$A35+1,FALSE),0)</f>
-        <v>40808</v>
+        <f>IFERROR( HLOOKUP("BE",K35:BE$64,$A$64-$A35+1,FALSE),0)+ IFERROR( HLOOKUP("E",K35:BE$64,$A$64-$A35+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>43</v>
@@ -3865,12 +3894,12 @@
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24">
-        <f>IFERROR( HLOOKUP("BE",K36:BE$55,$A$55-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",K36:BE$55,$A$55-$A36+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K36:BE$64,$A$64-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("B",K36:BE$64,$A$64-$A36+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G36" s="24">
-        <f>IFERROR( HLOOKUP("BE",K36:BE$55,$A$55-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",K36:BE$55,$A$55-$A36+1,FALSE),0)</f>
-        <v>40803</v>
+        <f>IFERROR( HLOOKUP("BE",K36:BE$64,$A$64-$A36+1,FALSE),0)+ IFERROR( HLOOKUP("E",K36:BE$64,$A$64-$A36+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>43</v>
@@ -3948,12 +3977,12 @@
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24">
-        <f>IFERROR( HLOOKUP("BE",K37:BE$55,$A$55-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",K37:BE$55,$A$55-$A37+1,FALSE),0)</f>
-        <v>40812</v>
+        <f>IFERROR( HLOOKUP("BE",K37:BE$64,$A$64-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("B",K37:BE$64,$A$64-$A37+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G37" s="24">
-        <f>IFERROR( HLOOKUP("BE",K37:BE$55,$A$55-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",K37:BE$55,$A$55-$A37+1,FALSE),0)</f>
-        <v>40814</v>
+        <f>IFERROR( HLOOKUP("BE",K37:BE$64,$A$64-$A37+1,FALSE),0)+ IFERROR( HLOOKUP("E",K37:BE$64,$A$64-$A37+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>39</v>
@@ -4029,12 +4058,12 @@
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$55,$A$55-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",K38:BE$55,$A$55-$A38+1,FALSE),0)</f>
-        <v>40812</v>
+        <f>IFERROR( HLOOKUP("BE",K38:BE$64,$A$64-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("B",K38:BE$64,$A$64-$A38+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G38" s="24">
-        <f>IFERROR( HLOOKUP("BE",K38:BE$55,$A$55-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",K38:BE$55,$A$55-$A38+1,FALSE),0)</f>
-        <v>40817</v>
+        <f>IFERROR( HLOOKUP("BE",K38:BE$64,$A$64-$A38+1,FALSE),0)+ IFERROR( HLOOKUP("E",K38:BE$64,$A$64-$A38+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>39</v>
@@ -4175,11 +4204,11 @@
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="24">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$55,$A$55-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",K40:BE$55,$A$55-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K40:BE$64,$A$64-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("B",K40:BE$64,$A$64-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="24">
-        <f>IFERROR( HLOOKUP("BE",K40:BE$55,$A$55-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",K40:BE$55,$A$55-$A40+1,FALSE),0)</f>
+        <f>IFERROR( HLOOKUP("BE",K40:BE$64,$A$64-$A40+1,FALSE),0)+ IFERROR( HLOOKUP("E",K40:BE$64,$A$64-$A40+1,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="24"/>
@@ -4309,15 +4338,15 @@
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$55,$A$55-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",K42:BE$55,$A$55-$A42+1,FALSE),0)</f>
-        <v>40802</v>
+        <f>IFERROR( HLOOKUP("BE",K42:BE$64,$A$64-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("B",K42:BE$64,$A$64-$A42+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G42" s="24">
-        <f>IFERROR( HLOOKUP("BE",K42:BE$55,$A$55-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",K42:BE$55,$A$55-$A42+1,FALSE),0)</f>
-        <v>40807</v>
+        <f>IFERROR( HLOOKUP("BE",K42:BE$64,$A$64-$A42+1,FALSE),0)+ IFERROR( HLOOKUP("E",K42:BE$64,$A$64-$A42+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -4457,12 +4486,12 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24">
-        <f>IFERROR( HLOOKUP("BE",K44:BE$55,$A$55-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",K44:BE$55,$A$55-$A44+1,FALSE),0)</f>
-        <v>40792</v>
+        <f>IFERROR( HLOOKUP("BE",K44:BE$64,$A$64-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("B",K44:BE$64,$A$64-$A44+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G44" s="24">
-        <f>IFERROR( HLOOKUP("BE",K44:BE$55,$A$55-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",K44:BE$55,$A$55-$A44+1,FALSE),0)</f>
-        <v>40793</v>
+        <f>IFERROR( HLOOKUP("BE",K44:BE$64,$A$64-$A44+1,FALSE),0)+ IFERROR( HLOOKUP("E",K44:BE$64,$A$64-$A44+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>43</v>
@@ -4534,12 +4563,12 @@
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24">
-        <f>IFERROR( HLOOKUP("BE",K45:BE$55,$A$55-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",K45:BE$55,$A$55-$A45+1,FALSE),0)</f>
-        <v>40794</v>
+        <f>IFERROR( HLOOKUP("BE",K45:BE$64,$A$64-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("B",K45:BE$64,$A$64-$A45+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G45" s="24">
-        <f>IFERROR( HLOOKUP("BE",K45:BE$55,$A$55-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",K45:BE$55,$A$55-$A45+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K45:BE$64,$A$64-$A45+1,FALSE),0)+ IFERROR( HLOOKUP("E",K45:BE$64,$A$64-$A45+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>43</v>
@@ -4611,12 +4640,12 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="24">
-        <f>IFERROR( HLOOKUP("BE",K46:BE$55,$A$55-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",K46:BE$55,$A$55-$A46+1,FALSE),0)</f>
-        <v>40794</v>
+        <f>IFERROR( HLOOKUP("BE",K46:BE$64,$A$64-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("B",K46:BE$64,$A$64-$A46+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G46" s="24">
-        <f>IFERROR( HLOOKUP("BE",K46:BE$55,$A$55-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",K46:BE$55,$A$55-$A46+1,FALSE),0)</f>
-        <v>40795</v>
+        <f>IFERROR( HLOOKUP("BE",K46:BE$64,$A$64-$A46+1,FALSE),0)+ IFERROR( HLOOKUP("E",K46:BE$64,$A$64-$A46+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>43</v>
@@ -4688,12 +4717,12 @@
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="24">
-        <f>IFERROR( HLOOKUP("BE",K47:BE$55,$A$55-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",K47:BE$55,$A$55-$A47+1,FALSE),0)</f>
-        <v>40798</v>
+        <f>IFERROR( HLOOKUP("BE",K47:BE$64,$A$64-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("B",K47:BE$64,$A$64-$A47+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G47" s="24">
-        <f>IFERROR( HLOOKUP("BE",K47:BE$55,$A$55-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",K47:BE$55,$A$55-$A47+1,FALSE),0)</f>
-        <v>40798</v>
+        <f>IFERROR( HLOOKUP("BE",K47:BE$64,$A$64-$A47+1,FALSE),0)+ IFERROR( HLOOKUP("E",K47:BE$64,$A$64-$A47+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>43</v>
@@ -4765,12 +4794,12 @@
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24">
-        <f>IFERROR( HLOOKUP("BE",K48:BE$55,$A$55-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",K48:BE$55,$A$55-$A48+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K48:BE$64,$A$64-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("B",K48:BE$64,$A$64-$A48+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G48" s="24">
-        <f>IFERROR( HLOOKUP("BE",K48:BE$55,$A$55-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",K48:BE$55,$A$55-$A48+1,FALSE),0)</f>
-        <v>40799</v>
+        <f>IFERROR( HLOOKUP("BE",K48:BE$64,$A$64-$A48+1,FALSE),0)+ IFERROR( HLOOKUP("E",K48:BE$64,$A$64-$A48+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>39</v>
@@ -4840,12 +4869,12 @@
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24">
-        <f>IFERROR( HLOOKUP("BE",K49:BE$55,$A$55-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",K49:BE$55,$A$55-$A49+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K49:BE$64,$A$64-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("B",K49:BE$64,$A$64-$A49+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G49" s="24">
-        <f>IFERROR( HLOOKUP("BE",K49:BE$55,$A$55-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",K49:BE$55,$A$55-$A49+1,FALSE),0)</f>
-        <v>40800</v>
+        <f>IFERROR( HLOOKUP("BE",K49:BE$64,$A$64-$A49+1,FALSE),0)+ IFERROR( HLOOKUP("E",K49:BE$64,$A$64-$A49+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>39</v>
@@ -4915,12 +4944,12 @@
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24">
-        <f>IFERROR( HLOOKUP("BE",K50:BE$55,$A$55-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",K50:BE$55,$A$55-$A50+1,FALSE),0)</f>
-        <v>40801</v>
+        <f>IFERROR( HLOOKUP("BE",K50:BE$64,$A$64-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("B",K50:BE$64,$A$64-$A50+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G50" s="24">
-        <f>IFERROR( HLOOKUP("BE",K50:BE$55,$A$55-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",K50:BE$55,$A$55-$A50+1,FALSE),0)</f>
-        <v>40801</v>
+        <f>IFERROR( HLOOKUP("BE",K50:BE$64,$A$64-$A50+1,FALSE),0)+ IFERROR( HLOOKUP("E",K50:BE$64,$A$64-$A50+1,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>39</v>
@@ -4979,11 +5008,11 @@
     </row>
     <row r="51" spans="1:57" s="21" customFormat="1">
       <c r="A51">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="33" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -5042,223 +5071,777 @@
     </row>
     <row r="52" spans="1:57">
       <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24">
+        <f>IFERROR( HLOOKUP("BE",K52:BE$64,$A$64-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("B",K52:BE$64,$A$64-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <f>IFERROR( HLOOKUP("BE",K52:BE$64,$A$64-$A52+1,FALSE),0)+ IFERROR( HLOOKUP("E",K52:BE$64,$A$64-$A52+1,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+    </row>
+    <row r="53" spans="1:57">
+      <c r="B53" s="23"/>
+      <c r="C53" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+    </row>
+    <row r="54" spans="1:57" ht="30">
+      <c r="B54" s="23"/>
+      <c r="C54" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+    </row>
+    <row r="55" spans="1:57">
+      <c r="B55" s="23"/>
+      <c r="C55" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+    </row>
+    <row r="56" spans="1:57">
+      <c r="B56" s="23"/>
+      <c r="C56" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+    </row>
+    <row r="57" spans="1:57">
+      <c r="B57" s="23"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+    </row>
+    <row r="58" spans="1:57">
+      <c r="B58" s="23"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+    </row>
+    <row r="59" spans="1:57">
+      <c r="B59" s="23"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+    </row>
+    <row r="60" spans="1:57" s="21" customFormat="1">
+      <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="22"/>
+      <c r="AQ60" s="22"/>
+      <c r="AR60" s="22"/>
+      <c r="AS60" s="22"/>
+      <c r="AT60" s="22"/>
+      <c r="AU60" s="22"/>
+      <c r="AV60" s="22"/>
+      <c r="AW60" s="22"/>
+      <c r="AX60" s="22"/>
+      <c r="AY60" s="22"/>
+      <c r="AZ60" s="22"/>
+      <c r="BA60" s="22"/>
+      <c r="BB60" s="22"/>
+      <c r="BC60" s="22"/>
+      <c r="BD60" s="22"/>
+      <c r="BE60" s="22"/>
+    </row>
+    <row r="61" spans="1:57">
+      <c r="A61">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:57">
-      <c r="A53">
+    <row r="62" spans="1:57">
+      <c r="A62">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:57">
-      <c r="A54">
+    <row r="63" spans="1:57">
+      <c r="A63">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:57" s="29" customFormat="1">
-      <c r="A55">
+    <row r="64" spans="1:57" s="29" customFormat="1">
+      <c r="A64">
         <v>45</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C64" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="K55" s="30">
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="K64" s="30">
         <f>K9</f>
         <v>40792</v>
       </c>
-      <c r="L55" s="30">
-        <f t="shared" ref="L55:BE55" si="3">L9</f>
+      <c r="L64" s="30">
+        <f t="shared" ref="L64:BE64" si="2">L9</f>
         <v>40793</v>
       </c>
-      <c r="M55" s="30">
-        <f t="shared" si="3"/>
+      <c r="M64" s="30">
+        <f t="shared" si="2"/>
         <v>40794</v>
       </c>
-      <c r="N55" s="30">
-        <f t="shared" si="3"/>
+      <c r="N64" s="30">
+        <f t="shared" si="2"/>
         <v>40795</v>
       </c>
-      <c r="O55" s="30">
-        <f t="shared" si="3"/>
+      <c r="O64" s="30">
+        <f t="shared" si="2"/>
         <v>40796</v>
       </c>
-      <c r="P55" s="30">
-        <f t="shared" si="3"/>
+      <c r="P64" s="30">
+        <f t="shared" si="2"/>
         <v>40797</v>
       </c>
-      <c r="Q55" s="30">
-        <f t="shared" si="3"/>
+      <c r="Q64" s="30">
+        <f t="shared" si="2"/>
         <v>40798</v>
       </c>
-      <c r="R55" s="30">
-        <f t="shared" si="3"/>
+      <c r="R64" s="30">
+        <f t="shared" si="2"/>
         <v>40799</v>
       </c>
-      <c r="S55" s="30">
-        <f t="shared" si="3"/>
+      <c r="S64" s="30">
+        <f t="shared" si="2"/>
         <v>40800</v>
       </c>
-      <c r="T55" s="30">
-        <f t="shared" si="3"/>
+      <c r="T64" s="30">
+        <f t="shared" si="2"/>
         <v>40801</v>
       </c>
-      <c r="U55" s="30">
-        <f t="shared" si="3"/>
+      <c r="U64" s="30">
+        <f t="shared" si="2"/>
         <v>40802</v>
       </c>
-      <c r="V55" s="30">
-        <f t="shared" si="3"/>
+      <c r="V64" s="30">
+        <f t="shared" si="2"/>
         <v>40803</v>
       </c>
-      <c r="W55" s="30">
-        <f t="shared" si="3"/>
+      <c r="W64" s="30">
+        <f t="shared" si="2"/>
         <v>40804</v>
       </c>
-      <c r="X55" s="30">
-        <f t="shared" si="3"/>
+      <c r="X64" s="30">
+        <f t="shared" si="2"/>
         <v>40805</v>
       </c>
-      <c r="Y55" s="30">
-        <f t="shared" si="3"/>
+      <c r="Y64" s="30">
+        <f t="shared" si="2"/>
         <v>40806</v>
       </c>
-      <c r="Z55" s="30">
-        <f t="shared" si="3"/>
+      <c r="Z64" s="30">
+        <f t="shared" si="2"/>
         <v>40807</v>
       </c>
-      <c r="AA55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AA64" s="30">
+        <f t="shared" si="2"/>
         <v>40808</v>
       </c>
-      <c r="AB55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AB64" s="30">
+        <f t="shared" si="2"/>
         <v>40809</v>
       </c>
-      <c r="AC55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AC64" s="30">
+        <f t="shared" si="2"/>
         <v>40810</v>
       </c>
-      <c r="AD55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AD64" s="30">
+        <f t="shared" si="2"/>
         <v>40811</v>
       </c>
-      <c r="AE55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AE64" s="30">
+        <f t="shared" si="2"/>
         <v>40812</v>
       </c>
-      <c r="AF55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AF64" s="30">
+        <f t="shared" si="2"/>
         <v>40813</v>
       </c>
-      <c r="AG55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AG64" s="30">
+        <f t="shared" si="2"/>
         <v>40814</v>
       </c>
-      <c r="AH55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AH64" s="30">
+        <f t="shared" si="2"/>
         <v>40815</v>
       </c>
-      <c r="AI55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AI64" s="30">
+        <f t="shared" si="2"/>
         <v>40816</v>
       </c>
-      <c r="AJ55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AJ64" s="30">
+        <f t="shared" si="2"/>
         <v>40817</v>
       </c>
-      <c r="AK55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AK64" s="30">
+        <f t="shared" si="2"/>
         <v>40818</v>
       </c>
-      <c r="AL55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AL64" s="30">
+        <f t="shared" si="2"/>
         <v>40819</v>
       </c>
-      <c r="AM55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AM64" s="30">
+        <f t="shared" si="2"/>
         <v>40820</v>
       </c>
-      <c r="AN55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AN64" s="30">
+        <f t="shared" si="2"/>
         <v>40821</v>
       </c>
-      <c r="AO55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AO64" s="30">
+        <f t="shared" si="2"/>
         <v>40822</v>
       </c>
-      <c r="AP55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AP64" s="30">
+        <f t="shared" si="2"/>
         <v>40823</v>
       </c>
-      <c r="AQ55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AQ64" s="30">
+        <f t="shared" si="2"/>
         <v>40824</v>
       </c>
-      <c r="AR55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AR64" s="30">
+        <f t="shared" si="2"/>
         <v>40825</v>
       </c>
-      <c r="AS55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AS64" s="30">
+        <f t="shared" si="2"/>
         <v>40826</v>
       </c>
-      <c r="AT55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AT64" s="30">
+        <f t="shared" si="2"/>
         <v>40827</v>
       </c>
-      <c r="AU55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AU64" s="30">
+        <f t="shared" si="2"/>
         <v>40828</v>
       </c>
-      <c r="AV55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AV64" s="30">
+        <f t="shared" si="2"/>
         <v>40829</v>
       </c>
-      <c r="AW55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AW64" s="30">
+        <f t="shared" si="2"/>
         <v>40830</v>
       </c>
-      <c r="AX55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AX64" s="30">
+        <f t="shared" si="2"/>
         <v>40831</v>
       </c>
-      <c r="AY55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AY64" s="30">
+        <f t="shared" si="2"/>
         <v>40832</v>
       </c>
-      <c r="AZ55" s="30">
-        <f t="shared" si="3"/>
+      <c r="AZ64" s="30">
+        <f t="shared" si="2"/>
         <v>40833</v>
       </c>
-      <c r="BA55" s="30">
-        <f t="shared" si="3"/>
+      <c r="BA64" s="30">
+        <f t="shared" si="2"/>
         <v>40834</v>
       </c>
-      <c r="BB55" s="30">
-        <f t="shared" si="3"/>
+      <c r="BB64" s="30">
+        <f t="shared" si="2"/>
         <v>40835</v>
       </c>
-      <c r="BC55" s="30">
-        <f t="shared" si="3"/>
+      <c r="BC64" s="30">
+        <f t="shared" si="2"/>
         <v>40836</v>
       </c>
-      <c r="BD55" s="30">
-        <f t="shared" si="3"/>
+      <c r="BD64" s="30">
+        <f t="shared" si="2"/>
         <v>40837</v>
       </c>
-      <c r="BE55" s="30">
-        <f t="shared" si="3"/>
+      <c r="BE64" s="30">
+        <f t="shared" si="2"/>
         <v>40838</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:BF55">
+  <autoFilter ref="A10:BF64">
     <filterColumn colId="3"/>
   </autoFilter>
-  <conditionalFormatting sqref="K52:AX52 K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
+  <conditionalFormatting sqref="K61:AX61 K42:BE42 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19 K44:BE59">
     <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -5269,17 +5852,17 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BE42 K44:BE50 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19">
+  <conditionalFormatting sqref="K42:BE42 K40:BE40 K24:BE24 K31:BE38 K26:BE29 K11:BE14 K16:M22 N18:O22 Y16:BE22 W18:X22 P16:V22 M16:P19 K44:BE59">
     <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40 H24 H26:H29 H31:H38 H42 H44:H50 H11:H14 H16:H22">
+  <conditionalFormatting sqref="H40 H24 H26:H29 H31:H38 H42 H11:H14 H16:H22 H44:H59">
     <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14 H44:H50 H40 H24 H26:H29 H31:H38 H42 H16:H22">
+  <conditionalFormatting sqref="H11:H14 H40 H24 H26:H29 H31:H38 H42 H16:H22 H44:H59">
     <cfRule type="expression" dxfId="4" priority="19">
       <formula>AND(H11&lt;&gt;$G$5,$G11&lt;TODAY())</formula>
     </cfRule>
@@ -5301,10 +5884,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 H40 H26:H29 H44:H50 H24 H31:H38 H11:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 H40 H26:H29 H11:H22 H24 H31:H38 H44:H50 H52:H59">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D60">
       <formula1>$C$2:$C$7</formula1>
     </dataValidation>
   </dataValidations>
